--- a/Bleidis surveillance ii.xlsx
+++ b/Bleidis surveillance ii.xlsx
@@ -14,11 +14,12 @@
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja9" sheetId="11" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="12" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1 (2)'!$C$2:$BV$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1 (2)'!$A$2:$DR$111</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja1 (2)'!$C$2:$G$110</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="268">
   <si>
     <t>CAMPO</t>
   </si>
@@ -1705,10 +1706,10 @@
   <dimension ref="A1:DR111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="AA11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AC14" sqref="AC14"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26034,7 +26035,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:BV111"/>
+  <autoFilter ref="A2:DR111"/>
   <sortState ref="C2:F106">
     <sortCondition ref="D2"/>
   </sortState>
@@ -30189,6 +30190,152 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H4:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:L23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -30651,7 +30798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DC109"/>
   <sheetViews>

--- a/Bleidis surveillance ii.xlsx
+++ b/Bleidis surveillance ii.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="300">
   <si>
     <t>CAMPO</t>
   </si>
@@ -919,6 +919,42 @@
   <si>
     <t>dic.2023</t>
   </si>
+  <si>
+    <t>    1096</t>
+  </si>
+  <si>
+    <t>    1161</t>
+  </si>
+  <si>
+    <t>    1208</t>
+  </si>
+  <si>
+    <t>    1269</t>
+  </si>
+  <si>
+    <t>    1245</t>
+  </si>
+  <si>
+    <t>    1134</t>
+  </si>
+  <si>
+    <t>    1069</t>
+  </si>
+  <si>
+    <t>    1119</t>
+  </si>
+  <si>
+    <t>    1167</t>
+  </si>
+  <si>
+    <t>    1171</t>
+  </si>
+  <si>
+    <t>    1113</t>
+  </si>
+  <si>
+    <t>    1044</t>
+  </si>
 </sst>
 </file>
 
@@ -1287,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,15 +1436,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1416,43 +1455,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1479,19 +1482,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1779,10 +1818,10 @@
   <dimension ref="A1:HV109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="10" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1816,238 +1855,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:230" x14ac:dyDescent="0.3">
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="41" t="s">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="42"/>
-      <c r="BJ1" s="42"/>
-      <c r="BK1" s="38" t="s">
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="BL1" s="39"/>
-      <c r="BM1" s="39"/>
-      <c r="BN1" s="39"/>
-      <c r="BO1" s="39"/>
-      <c r="BP1" s="39"/>
-      <c r="BQ1" s="39"/>
-      <c r="BR1" s="39"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="39"/>
-      <c r="BV1" s="39"/>
-      <c r="BW1" s="43" t="s">
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="47"/>
+      <c r="BQ1" s="47"/>
+      <c r="BR1" s="47"/>
+      <c r="BS1" s="47"/>
+      <c r="BT1" s="47"/>
+      <c r="BU1" s="47"/>
+      <c r="BV1" s="47"/>
+      <c r="BW1" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="BX1" s="44"/>
-      <c r="BY1" s="44"/>
-      <c r="BZ1" s="44"/>
-      <c r="CA1" s="44"/>
-      <c r="CB1" s="44"/>
-      <c r="CC1" s="44"/>
-      <c r="CD1" s="44"/>
-      <c r="CE1" s="44"/>
-      <c r="CF1" s="44"/>
-      <c r="CG1" s="44"/>
-      <c r="CH1" s="44"/>
-      <c r="CI1" s="44"/>
-      <c r="CJ1" s="44"/>
-      <c r="CK1" s="44"/>
-      <c r="CL1" s="44"/>
-      <c r="CM1" s="44"/>
-      <c r="CN1" s="44"/>
-      <c r="CO1" s="44"/>
-      <c r="CP1" s="44"/>
-      <c r="CQ1" s="44"/>
-      <c r="CR1" s="44"/>
-      <c r="CS1" s="44"/>
-      <c r="CT1" s="44"/>
-      <c r="CU1" s="44"/>
-      <c r="CV1" s="44"/>
-      <c r="CW1" s="44"/>
-      <c r="CX1" s="44"/>
-      <c r="CY1" s="44"/>
-      <c r="CZ1" s="44"/>
-      <c r="DA1" s="44"/>
-      <c r="DB1" s="44"/>
-      <c r="DC1" s="44"/>
-      <c r="DD1" s="44"/>
-      <c r="DE1" s="44"/>
-      <c r="DF1" s="45"/>
-      <c r="DG1" s="38" t="s">
+      <c r="BX1" s="50"/>
+      <c r="BY1" s="50"/>
+      <c r="BZ1" s="50"/>
+      <c r="CA1" s="50"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
+      <c r="CI1" s="50"/>
+      <c r="CJ1" s="50"/>
+      <c r="CK1" s="50"/>
+      <c r="CL1" s="50"/>
+      <c r="CM1" s="50"/>
+      <c r="CN1" s="50"/>
+      <c r="CO1" s="50"/>
+      <c r="CP1" s="50"/>
+      <c r="CQ1" s="50"/>
+      <c r="CR1" s="50"/>
+      <c r="CS1" s="50"/>
+      <c r="CT1" s="50"/>
+      <c r="CU1" s="50"/>
+      <c r="CV1" s="50"/>
+      <c r="CW1" s="50"/>
+      <c r="CX1" s="50"/>
+      <c r="CY1" s="50"/>
+      <c r="CZ1" s="50"/>
+      <c r="DA1" s="50"/>
+      <c r="DB1" s="50"/>
+      <c r="DC1" s="50"/>
+      <c r="DD1" s="50"/>
+      <c r="DE1" s="50"/>
+      <c r="DF1" s="51"/>
+      <c r="DG1" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="DH1" s="39"/>
-      <c r="DI1" s="39"/>
-      <c r="DJ1" s="39"/>
-      <c r="DK1" s="39"/>
-      <c r="DL1" s="39"/>
-      <c r="DM1" s="39"/>
-      <c r="DN1" s="39"/>
-      <c r="DO1" s="39"/>
-      <c r="DP1" s="39"/>
-      <c r="DQ1" s="39"/>
-      <c r="DR1" s="39"/>
-      <c r="DS1" s="39"/>
-      <c r="DT1" s="39"/>
-      <c r="DU1" s="39"/>
-      <c r="DV1" s="39"/>
-      <c r="DW1" s="39"/>
-      <c r="DX1" s="39"/>
-      <c r="DY1" s="39"/>
-      <c r="DZ1" s="39"/>
-      <c r="EA1" s="39"/>
-      <c r="EB1" s="39"/>
-      <c r="EC1" s="39"/>
-      <c r="ED1" s="39"/>
-      <c r="EE1" s="39"/>
-      <c r="EF1" s="39"/>
-      <c r="EG1" s="39"/>
-      <c r="EH1" s="39"/>
-      <c r="EI1" s="39"/>
-      <c r="EJ1" s="39"/>
-      <c r="EK1" s="39"/>
-      <c r="EL1" s="39"/>
-      <c r="EM1" s="39"/>
-      <c r="EN1" s="39"/>
-      <c r="EO1" s="39"/>
-      <c r="EP1" s="40"/>
-      <c r="EQ1" s="43" t="s">
+      <c r="DH1" s="47"/>
+      <c r="DI1" s="47"/>
+      <c r="DJ1" s="47"/>
+      <c r="DK1" s="47"/>
+      <c r="DL1" s="47"/>
+      <c r="DM1" s="47"/>
+      <c r="DN1" s="47"/>
+      <c r="DO1" s="47"/>
+      <c r="DP1" s="47"/>
+      <c r="DQ1" s="47"/>
+      <c r="DR1" s="47"/>
+      <c r="DS1" s="47"/>
+      <c r="DT1" s="47"/>
+      <c r="DU1" s="47"/>
+      <c r="DV1" s="47"/>
+      <c r="DW1" s="47"/>
+      <c r="DX1" s="47"/>
+      <c r="DY1" s="47"/>
+      <c r="DZ1" s="47"/>
+      <c r="EA1" s="47"/>
+      <c r="EB1" s="47"/>
+      <c r="EC1" s="47"/>
+      <c r="ED1" s="47"/>
+      <c r="EE1" s="47"/>
+      <c r="EF1" s="47"/>
+      <c r="EG1" s="47"/>
+      <c r="EH1" s="47"/>
+      <c r="EI1" s="47"/>
+      <c r="EJ1" s="47"/>
+      <c r="EK1" s="47"/>
+      <c r="EL1" s="47"/>
+      <c r="EM1" s="47"/>
+      <c r="EN1" s="47"/>
+      <c r="EO1" s="47"/>
+      <c r="EP1" s="48"/>
+      <c r="EQ1" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="ER1" s="44"/>
-      <c r="ES1" s="44"/>
-      <c r="ET1" s="44"/>
-      <c r="EU1" s="44"/>
-      <c r="EV1" s="44"/>
-      <c r="EW1" s="44"/>
-      <c r="EX1" s="44"/>
-      <c r="EY1" s="44"/>
-      <c r="EZ1" s="44"/>
-      <c r="FA1" s="44"/>
-      <c r="FB1" s="44"/>
-      <c r="FC1" s="44"/>
-      <c r="FD1" s="44"/>
-      <c r="FE1" s="44"/>
-      <c r="FF1" s="44"/>
-      <c r="FG1" s="44"/>
-      <c r="FH1" s="44"/>
-      <c r="FI1" s="44"/>
-      <c r="FJ1" s="44"/>
-      <c r="FK1" s="44"/>
-      <c r="FL1" s="44"/>
-      <c r="FM1" s="44"/>
-      <c r="FN1" s="44"/>
-      <c r="FO1" s="44"/>
-      <c r="FP1" s="44"/>
-      <c r="FQ1" s="44"/>
-      <c r="FR1" s="44"/>
-      <c r="FS1" s="44"/>
-      <c r="FT1" s="44"/>
-      <c r="FU1" s="44"/>
-      <c r="FV1" s="44"/>
-      <c r="FW1" s="44"/>
-      <c r="FX1" s="44"/>
-      <c r="FY1" s="44"/>
-      <c r="FZ1" s="45"/>
-      <c r="GA1" s="38" t="s">
+      <c r="ER1" s="50"/>
+      <c r="ES1" s="50"/>
+      <c r="ET1" s="50"/>
+      <c r="EU1" s="50"/>
+      <c r="EV1" s="50"/>
+      <c r="EW1" s="50"/>
+      <c r="EX1" s="50"/>
+      <c r="EY1" s="50"/>
+      <c r="EZ1" s="50"/>
+      <c r="FA1" s="50"/>
+      <c r="FB1" s="50"/>
+      <c r="FC1" s="50"/>
+      <c r="FD1" s="50"/>
+      <c r="FE1" s="50"/>
+      <c r="FF1" s="50"/>
+      <c r="FG1" s="50"/>
+      <c r="FH1" s="50"/>
+      <c r="FI1" s="50"/>
+      <c r="FJ1" s="50"/>
+      <c r="FK1" s="50"/>
+      <c r="FL1" s="50"/>
+      <c r="FM1" s="50"/>
+      <c r="FN1" s="50"/>
+      <c r="FO1" s="50"/>
+      <c r="FP1" s="50"/>
+      <c r="FQ1" s="50"/>
+      <c r="FR1" s="50"/>
+      <c r="FS1" s="50"/>
+      <c r="FT1" s="50"/>
+      <c r="FU1" s="50"/>
+      <c r="FV1" s="50"/>
+      <c r="FW1" s="50"/>
+      <c r="FX1" s="50"/>
+      <c r="FY1" s="50"/>
+      <c r="FZ1" s="51"/>
+      <c r="GA1" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="GB1" s="39"/>
-      <c r="GC1" s="39"/>
-      <c r="GD1" s="39"/>
-      <c r="GE1" s="39"/>
-      <c r="GF1" s="39"/>
-      <c r="GG1" s="39"/>
-      <c r="GH1" s="39"/>
-      <c r="GI1" s="39"/>
-      <c r="GJ1" s="39"/>
-      <c r="GK1" s="39"/>
-      <c r="GL1" s="39"/>
-      <c r="GM1" s="46" t="s">
+      <c r="GB1" s="47"/>
+      <c r="GC1" s="47"/>
+      <c r="GD1" s="47"/>
+      <c r="GE1" s="47"/>
+      <c r="GF1" s="47"/>
+      <c r="GG1" s="47"/>
+      <c r="GH1" s="47"/>
+      <c r="GI1" s="47"/>
+      <c r="GJ1" s="47"/>
+      <c r="GK1" s="47"/>
+      <c r="GL1" s="47"/>
+      <c r="GM1" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="GN1" s="47"/>
-      <c r="GO1" s="47"/>
-      <c r="GP1" s="47"/>
-      <c r="GQ1" s="47"/>
-      <c r="GR1" s="47"/>
-      <c r="GS1" s="47"/>
-      <c r="GT1" s="47"/>
-      <c r="GU1" s="47"/>
-      <c r="GV1" s="47"/>
-      <c r="GW1" s="47"/>
-      <c r="GX1" s="47"/>
-      <c r="GY1" s="47"/>
-      <c r="GZ1" s="47"/>
-      <c r="HA1" s="47"/>
-      <c r="HB1" s="47"/>
-      <c r="HC1" s="47"/>
-      <c r="HD1" s="47"/>
-      <c r="HE1" s="47"/>
-      <c r="HF1" s="47"/>
-      <c r="HG1" s="47"/>
-      <c r="HH1" s="47"/>
-      <c r="HI1" s="47"/>
-      <c r="HJ1" s="47"/>
-      <c r="HK1" s="47"/>
-      <c r="HL1" s="47"/>
-      <c r="HM1" s="47"/>
-      <c r="HN1" s="47"/>
-      <c r="HO1" s="47"/>
-      <c r="HP1" s="47"/>
-      <c r="HQ1" s="47"/>
-      <c r="HR1" s="47"/>
-      <c r="HS1" s="47"/>
-      <c r="HT1" s="47"/>
-      <c r="HU1" s="47"/>
-      <c r="HV1" s="47"/>
+      <c r="GN1" s="53"/>
+      <c r="GO1" s="53"/>
+      <c r="GP1" s="53"/>
+      <c r="GQ1" s="53"/>
+      <c r="GR1" s="53"/>
+      <c r="GS1" s="53"/>
+      <c r="GT1" s="53"/>
+      <c r="GU1" s="53"/>
+      <c r="GV1" s="53"/>
+      <c r="GW1" s="53"/>
+      <c r="GX1" s="53"/>
+      <c r="GY1" s="53"/>
+      <c r="GZ1" s="53"/>
+      <c r="HA1" s="53"/>
+      <c r="HB1" s="53"/>
+      <c r="HC1" s="53"/>
+      <c r="HD1" s="53"/>
+      <c r="HE1" s="53"/>
+      <c r="HF1" s="53"/>
+      <c r="HG1" s="53"/>
+      <c r="HH1" s="53"/>
+      <c r="HI1" s="53"/>
+      <c r="HJ1" s="53"/>
+      <c r="HK1" s="53"/>
+      <c r="HL1" s="53"/>
+      <c r="HM1" s="53"/>
+      <c r="HN1" s="53"/>
+      <c r="HO1" s="53"/>
+      <c r="HP1" s="53"/>
+      <c r="HQ1" s="53"/>
+      <c r="HR1" s="53"/>
+      <c r="HS1" s="53"/>
+      <c r="HT1" s="53"/>
+      <c r="HU1" s="53"/>
+      <c r="HV1" s="53"/>
     </row>
     <row r="2" spans="1:230" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4505,7 +4544,7 @@
       <c r="D6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="39" t="s">
         <v>135</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -4994,7 +5033,7 @@
       <c r="D7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
@@ -5481,7 +5520,7 @@
       <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="37" t="s">
         <v>144</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -5970,7 +6009,7 @@
       <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
@@ -6457,7 +6496,7 @@
       <c r="D10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6630,7 +6669,7 @@
       <c r="D11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="5" t="s">
         <v>5</v>
       </c>
@@ -7117,7 +7156,7 @@
       <c r="D12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="5" t="s">
         <v>5</v>
       </c>
@@ -7601,14 +7640,14 @@
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="54" t="str">
+      <c r="D13" s="34" t="str">
         <f>+C13</f>
         <v>CAPACHOS</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="34" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -8285,9 +8324,9 @@
       <c r="C14" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="55"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="6" t="s">
         <v>3</v>
       </c>
@@ -8457,7 +8496,7 @@
       <c r="D15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="37" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -9140,7 +9179,7 @@
       <c r="D16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="5" t="s">
         <v>5</v>
       </c>
@@ -9821,7 +9860,7 @@
       <c r="D17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="5" t="s">
         <v>5</v>
       </c>
@@ -10477,7 +10516,7 @@
       <c r="D18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
@@ -10968,7 +11007,7 @@
       <c r="D19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="5" t="s">
         <v>5</v>
       </c>
@@ -13187,7 +13226,7 @@
       <c r="D24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="39" t="s">
         <v>139</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -13676,7 +13715,7 @@
       <c r="D25" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="5" t="s">
         <v>5</v>
       </c>
@@ -14163,7 +14202,7 @@
       <c r="D26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="39" t="s">
         <v>136</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -14652,7 +14691,7 @@
       <c r="D27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="34"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="5" t="s">
         <v>5</v>
       </c>
@@ -15139,7 +15178,7 @@
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="37" t="s">
         <v>146</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -15724,7 +15763,7 @@
       <c r="D29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
@@ -17964,7 +18003,7 @@
       <c r="D35" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="41" t="s">
         <v>137</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -18453,7 +18492,7 @@
       <c r="D36" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="49"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="10" t="s">
         <v>5</v>
       </c>
@@ -18941,7 +18980,7 @@
         <f>+D36</f>
         <v>CARACARA</v>
       </c>
-      <c r="E37" s="49"/>
+      <c r="E37" s="41"/>
       <c r="F37" s="10" t="s">
         <v>5</v>
       </c>
@@ -19429,7 +19468,7 @@
         <f>+D37</f>
         <v>CARACARA</v>
       </c>
-      <c r="E38" s="49"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="10" t="s">
         <v>5</v>
       </c>
@@ -19917,7 +19956,7 @@
         <f>+D38</f>
         <v>CARACARA</v>
       </c>
-      <c r="E39" s="49"/>
+      <c r="E39" s="41"/>
       <c r="F39" s="10" t="s">
         <v>5</v>
       </c>
@@ -20404,7 +20443,7 @@
       <c r="D40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="49"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="10" t="s">
         <v>5</v>
       </c>
@@ -20891,7 +20930,7 @@
       <c r="D41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="49"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="10" t="s">
         <v>5</v>
       </c>
@@ -21378,7 +21417,7 @@
       <c r="D42" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="49"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="10" t="s">
         <v>5</v>
       </c>
@@ -21865,7 +21904,7 @@
       <c r="D43" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="49"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="10" t="s">
         <v>5</v>
       </c>
@@ -22352,7 +22391,7 @@
       <c r="D44" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="49"/>
+      <c r="E44" s="41"/>
       <c r="F44" s="10" t="s">
         <v>5</v>
       </c>
@@ -22839,7 +22878,7 @@
       <c r="D45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="49"/>
+      <c r="E45" s="41"/>
       <c r="F45" s="10" t="s">
         <v>5</v>
       </c>
@@ -23320,7 +23359,7 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="36" t="s">
         <v>131</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -23329,7 +23368,7 @@
       <c r="D46" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="41" t="s">
         <v>135</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -23812,14 +23851,14 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="56"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="49"/>
+      <c r="E47" s="41"/>
       <c r="F47" s="10" t="s">
         <v>5</v>
       </c>
@@ -24300,14 +24339,14 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="49"/>
+      <c r="E48" s="41"/>
       <c r="F48" s="10" t="s">
         <v>5</v>
       </c>
@@ -24788,14 +24827,14 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="56"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="49"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="10" t="s">
         <v>5</v>
       </c>
@@ -25348,14 +25387,14 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="56"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="49"/>
+      <c r="E50" s="41"/>
       <c r="F50" s="10" t="s">
         <v>5</v>
       </c>
@@ -25836,14 +25875,14 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="56"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="49"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="10" t="s">
         <v>5</v>
       </c>
@@ -26324,14 +26363,14 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="56"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="49"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="10" t="s">
         <v>5</v>
       </c>
@@ -26812,14 +26851,14 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="56"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="49"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="10" t="s">
         <v>5</v>
       </c>
@@ -27300,14 +27339,14 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="56"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="49"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="10" t="s">
         <v>5</v>
       </c>
@@ -27788,14 +27827,14 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="56"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="49"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="10" t="s">
         <v>5</v>
       </c>
@@ -28142,14 +28181,14 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="56"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="49"/>
+      <c r="E56" s="41"/>
       <c r="F56" s="10" t="s">
         <v>5</v>
       </c>
@@ -28630,14 +28669,14 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="56"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="49"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="10" t="s">
         <v>5</v>
       </c>
@@ -29118,14 +29157,14 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="56"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="49"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="10" t="s">
         <v>5</v>
       </c>
@@ -29606,14 +29645,14 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="49"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="10" t="s">
         <v>5</v>
       </c>
@@ -30094,14 +30133,14 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="56"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E60" s="49"/>
+      <c r="E60" s="41"/>
       <c r="F60" s="10" t="s">
         <v>5</v>
       </c>
@@ -30582,14 +30621,14 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="49"/>
+      <c r="E61" s="41"/>
       <c r="F61" s="10" t="s">
         <v>5</v>
       </c>
@@ -31070,14 +31109,14 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="56"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E62" s="49"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="10" t="s">
         <v>5</v>
       </c>
@@ -31558,14 +31597,14 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="56"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="49"/>
+      <c r="E63" s="41"/>
       <c r="F63" s="10" t="s">
         <v>5</v>
       </c>
@@ -32046,14 +32085,14 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="56"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E64" s="49"/>
+      <c r="E64" s="41"/>
       <c r="F64" s="10" t="s">
         <v>5</v>
       </c>
@@ -32534,14 +32573,14 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="56"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E65" s="49"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="10" t="s">
         <v>5</v>
       </c>
@@ -32997,14 +33036,14 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="56"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E66" s="49"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="10" t="s">
         <v>5</v>
       </c>
@@ -33485,14 +33524,14 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="56"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E67" s="49"/>
+      <c r="E67" s="41"/>
       <c r="F67" s="10" t="s">
         <v>5</v>
       </c>
@@ -33948,14 +33987,14 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="56"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="49"/>
+      <c r="E68" s="41"/>
       <c r="F68" s="10" t="s">
         <v>5</v>
       </c>
@@ -34411,14 +34450,14 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="56"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="49"/>
+      <c r="E69" s="41"/>
       <c r="F69" s="10" t="s">
         <v>5</v>
       </c>
@@ -34899,14 +34938,14 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="56"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="49"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="10" t="s">
         <v>5</v>
       </c>
@@ -35387,14 +35426,14 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="56"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="49"/>
+      <c r="E71" s="41"/>
       <c r="F71" s="10" t="s">
         <v>5</v>
       </c>
@@ -35875,14 +35914,14 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="56"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="49"/>
+      <c r="E72" s="41"/>
       <c r="F72" s="10" t="s">
         <v>5</v>
       </c>
@@ -36363,14 +36402,14 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="56"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E73" s="49"/>
+      <c r="E73" s="41"/>
       <c r="F73" s="10" t="s">
         <v>5</v>
       </c>
@@ -36851,14 +36890,14 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="56"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E74" s="49"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="10" t="s">
         <v>5</v>
       </c>
@@ -37339,14 +37378,14 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E75" s="49"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="10" t="s">
         <v>5</v>
       </c>
@@ -37827,14 +37866,14 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="56"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="49"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="10" t="s">
         <v>5</v>
       </c>
@@ -38315,7 +38354,7 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -38324,7 +38363,7 @@
       <c r="D77" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="50" t="s">
+      <c r="E77" s="42" t="s">
         <v>140</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -38807,14 +38846,14 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="48"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E78" s="50"/>
+      <c r="E78" s="42"/>
       <c r="F78" s="10" t="s">
         <v>5</v>
       </c>
@@ -39295,14 +39334,14 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="48"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="7" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="50"/>
+      <c r="E79" s="42"/>
       <c r="F79" s="10" t="s">
         <v>5</v>
       </c>
@@ -39783,14 +39822,14 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="48"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E80" s="50"/>
+      <c r="E80" s="42"/>
       <c r="F80" s="10" t="s">
         <v>5</v>
       </c>
@@ -39949,14 +39988,14 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="48"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E81" s="50"/>
+      <c r="E81" s="42"/>
       <c r="F81" s="10" t="s">
         <v>5</v>
       </c>
@@ -40115,14 +40154,14 @@
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="48"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E82" s="50"/>
+      <c r="E82" s="42"/>
       <c r="F82" s="10" t="s">
         <v>5</v>
       </c>
@@ -40603,14 +40642,14 @@
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="48"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="50"/>
+      <c r="E83" s="42"/>
       <c r="F83" s="10" t="s">
         <v>5</v>
       </c>
@@ -41091,14 +41130,14 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="48"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E84" s="50"/>
+      <c r="E84" s="42"/>
       <c r="F84" s="10" t="s">
         <v>5</v>
       </c>
@@ -41579,14 +41618,14 @@
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="48"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E85" s="50"/>
+      <c r="E85" s="42"/>
       <c r="F85" s="10" t="s">
         <v>5</v>
       </c>
@@ -42067,7 +42106,7 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="48"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="7" t="s">
         <v>120</v>
       </c>
@@ -42075,7 +42114,7 @@
         <f>+D85</f>
         <v>COSECHA</v>
       </c>
-      <c r="E86" s="50"/>
+      <c r="E86" s="42"/>
       <c r="F86" s="10" t="s">
         <v>5</v>
       </c>
@@ -42556,14 +42595,14 @@
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="48"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E87" s="50"/>
+      <c r="E87" s="42"/>
       <c r="F87" s="10" t="s">
         <v>5</v>
       </c>
@@ -43044,14 +43083,14 @@
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="48"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E88" s="50"/>
+      <c r="E88" s="42"/>
       <c r="F88" s="10" t="s">
         <v>5</v>
       </c>
@@ -43532,14 +43571,14 @@
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="48"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E89" s="50"/>
+      <c r="E89" s="42"/>
       <c r="F89" s="10" t="s">
         <v>5</v>
       </c>
@@ -44020,14 +44059,14 @@
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="48"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E90" s="50"/>
+      <c r="E90" s="42"/>
       <c r="F90" s="10" t="s">
         <v>5</v>
       </c>
@@ -44508,14 +44547,14 @@
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="48"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E91" s="50"/>
+      <c r="E91" s="42"/>
       <c r="F91" s="10" t="s">
         <v>5</v>
       </c>
@@ -44996,14 +45035,14 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="48"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E92" s="50"/>
+      <c r="E92" s="42"/>
       <c r="F92" s="10" t="s">
         <v>5</v>
       </c>
@@ -45484,14 +45523,14 @@
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="48"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E93" s="50"/>
+      <c r="E93" s="42"/>
       <c r="F93" s="10" t="s">
         <v>5</v>
       </c>
@@ -45972,14 +46011,14 @@
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="48"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E94" s="50"/>
+      <c r="E94" s="42"/>
       <c r="F94" s="10" t="s">
         <v>5</v>
       </c>
@@ -46460,14 +46499,14 @@
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="48"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E95" s="50"/>
+      <c r="E95" s="42"/>
       <c r="F95" s="10" t="s">
         <v>5</v>
       </c>
@@ -46948,14 +46987,14 @@
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="48"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E96" s="50"/>
+      <c r="E96" s="42"/>
       <c r="F96" s="10" t="s">
         <v>5</v>
       </c>
@@ -47436,14 +47475,14 @@
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="48"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E97" s="50"/>
+      <c r="E97" s="42"/>
       <c r="F97" s="10" t="s">
         <v>5</v>
       </c>
@@ -47924,14 +47963,14 @@
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="48"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E98" s="50"/>
+      <c r="E98" s="42"/>
       <c r="F98" s="10" t="s">
         <v>5</v>
       </c>
@@ -48310,7 +48349,7 @@
       <c r="D99" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E99" s="51" t="s">
+      <c r="E99" s="43" t="s">
         <v>142</v>
       </c>
       <c r="F99" s="8" t="s">
@@ -48799,7 +48838,7 @@
       <c r="D100" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="52"/>
+      <c r="E100" s="44"/>
       <c r="F100" s="8" t="s">
         <v>2</v>
       </c>
@@ -49286,7 +49325,7 @@
       <c r="D101" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="52"/>
+      <c r="E101" s="44"/>
       <c r="F101" s="8" t="s">
         <v>2</v>
       </c>
@@ -49748,7 +49787,7 @@
       <c r="D102" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="52"/>
+      <c r="E102" s="44"/>
       <c r="F102" s="8" t="s">
         <v>2</v>
       </c>
@@ -50235,7 +50274,7 @@
       <c r="D103" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="52"/>
+      <c r="E103" s="44"/>
       <c r="F103" s="8" t="s">
         <v>2</v>
       </c>
@@ -50722,7 +50761,7 @@
       <c r="D104" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="52"/>
+      <c r="E104" s="44"/>
       <c r="F104" s="8" t="s">
         <v>2</v>
       </c>
@@ -51209,7 +51248,7 @@
       <c r="D105" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="53"/>
+      <c r="E105" s="45"/>
       <c r="F105" s="14" t="s">
         <v>2</v>
       </c>
@@ -51382,7 +51421,7 @@
       <c r="D106" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E106" s="49" t="s">
+      <c r="E106" s="41" t="s">
         <v>145</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -51967,7 +52006,7 @@
       <c r="D107" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E107" s="49"/>
+      <c r="E107" s="41"/>
       <c r="F107" s="8" t="s">
         <v>2</v>
       </c>
@@ -52550,41 +52589,114 @@
       <c r="L108" s="26">
         <v>7.8859620482970738E-2</v>
       </c>
-      <c r="P108" s="18"/>
-      <c r="Q108" s="18"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="18"/>
-      <c r="T108" s="18"/>
-      <c r="U108" s="18"/>
-      <c r="V108" s="18"/>
-      <c r="W108" s="18"/>
-      <c r="X108" s="18"/>
-      <c r="Y108" s="18"/>
-      <c r="Z108" s="18"/>
-      <c r="AA108" s="18"/>
-      <c r="AB108" s="18"/>
-      <c r="AC108" s="18"/>
-      <c r="AD108" s="18"/>
-      <c r="AE108" s="18"/>
-      <c r="AF108" s="18"/>
-      <c r="AG108" s="18"/>
-      <c r="AH108" s="18"/>
-      <c r="AI108" s="18"/>
-      <c r="AJ108" s="18"/>
-      <c r="AK108" s="18"/>
-      <c r="AL108" s="18"/>
-      <c r="AM108" s="18"/>
-      <c r="AN108" s="18"/>
-      <c r="AO108" s="18"/>
-      <c r="AP108" s="18"/>
-      <c r="AQ108" s="18"/>
-      <c r="AR108" s="18"/>
-      <c r="AS108" s="18"/>
-      <c r="AT108" s="18"/>
-      <c r="AU108" s="18"/>
-      <c r="AV108" s="18"/>
-      <c r="AW108" s="18"/>
-      <c r="AX108" s="18"/>
+      <c r="O108" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="P108" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q108" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="R108" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="S108" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="T108" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="U108" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="V108" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="W108" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="X108" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y108" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z108" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA108" s="18">
+        <v>1071.5552346017619</v>
+      </c>
+      <c r="AB108" s="18">
+        <v>1113.8959411246769</v>
+      </c>
+      <c r="AC108" s="18">
+        <v>1158.2289132592373</v>
+      </c>
+      <c r="AD108" s="18">
+        <v>1181.747467722937</v>
+      </c>
+      <c r="AE108" s="18">
+        <v>1103.6748398058503</v>
+      </c>
+      <c r="AF108" s="18">
+        <v>1047.9691754612443</v>
+      </c>
+      <c r="AG108" s="18">
+        <v>1010.3439254755332</v>
+      </c>
+      <c r="AH108" s="18">
+        <v>1040.4997418001412</v>
+      </c>
+      <c r="AI108" s="18">
+        <v>1053.5115823135243</v>
+      </c>
+      <c r="AJ108" s="18">
+        <v>1009.8341938322545</v>
+      </c>
+      <c r="AK108" s="18">
+        <v>971.08659422642199</v>
+      </c>
+      <c r="AL108" s="18">
+        <v>938.83105511833446</v>
+      </c>
+      <c r="AM108" s="18">
+        <v>899.78001544180506</v>
+      </c>
+      <c r="AN108" s="18">
+        <v>873.97517519067969</v>
+      </c>
+      <c r="AO108" s="18">
+        <v>827.3506110420094</v>
+      </c>
+      <c r="AP108" s="18">
+        <v>794.62002091143631</v>
+      </c>
+      <c r="AQ108" s="18">
+        <v>765.25133350424596</v>
+      </c>
+      <c r="AR108" s="18">
+        <v>738.61760073971504</v>
+      </c>
+      <c r="AS108" s="18">
+        <v>716.31410173089921</v>
+      </c>
+      <c r="AT108" s="18">
+        <v>695.75646987679693</v>
+      </c>
+      <c r="AU108" s="18">
+        <v>676.70169938493882</v>
+      </c>
+      <c r="AV108" s="18">
+        <v>659.50608450601203</v>
+      </c>
+      <c r="AW108" s="18">
+        <v>640.22938347762727</v>
+      </c>
+      <c r="AX108" s="18">
+        <v>623.45657544255107</v>
+      </c>
       <c r="AY108" s="18">
         <v>1230</v>
       </c>
@@ -53248,30 +53360,30 @@
     <sortCondition ref="D2"/>
   </sortState>
   <mergeCells count="24">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="O1:AX1"/>
+    <mergeCell ref="AY1:BJ1"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="BK1:BV1"/>
+    <mergeCell ref="DG1:EP1"/>
+    <mergeCell ref="EQ1:FZ1"/>
+    <mergeCell ref="GA1:GL1"/>
+    <mergeCell ref="GM1:HV1"/>
+    <mergeCell ref="BW1:DF1"/>
+    <mergeCell ref="B77:B98"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E77:E98"/>
+    <mergeCell ref="E35:E45"/>
+    <mergeCell ref="E46:E76"/>
+    <mergeCell ref="E99:E105"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B46:B76"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B77:B98"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E77:E98"/>
-    <mergeCell ref="E35:E45"/>
-    <mergeCell ref="E46:E76"/>
-    <mergeCell ref="E99:E105"/>
-    <mergeCell ref="BK1:BV1"/>
-    <mergeCell ref="DG1:EP1"/>
-    <mergeCell ref="EQ1:FZ1"/>
-    <mergeCell ref="GA1:GL1"/>
-    <mergeCell ref="GM1:HV1"/>
-    <mergeCell ref="BW1:DF1"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="O1:AX1"/>
-    <mergeCell ref="AY1:BJ1"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -76741,6 +76853,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E236946BD814C54BB22A20EFB5E1111D" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="86f63bfa0d0969920d40911bc9216014">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7cd710cb-49ab-46db-a349-b062c519cda6" xmlns:ns4="6c75cb1f-1e2b-49d1-8289-20651f4935b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="485088cba347f8b48a697c46e301beb3" ns3:_="" ns4:_="">
     <xsd:import namespace="7cd710cb-49ab-46db-a349-b062c519cda6"/>
@@ -76963,36 +77090,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B88C0C9-65FE-4E9F-BA05-E989639448E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
-    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -77015,9 +77116,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B88C0C9-65FE-4E9F-BA05-E989639448E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
+    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Bleidis surveillance ii.xlsx
+++ b/Bleidis surveillance ii.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="288">
   <si>
     <t>CAMPO</t>
   </si>
@@ -919,42 +919,6 @@
   <si>
     <t>dic.2023</t>
   </si>
-  <si>
-    <t>    1096</t>
-  </si>
-  <si>
-    <t>    1161</t>
-  </si>
-  <si>
-    <t>    1208</t>
-  </si>
-  <si>
-    <t>    1269</t>
-  </si>
-  <si>
-    <t>    1245</t>
-  </si>
-  <si>
-    <t>    1134</t>
-  </si>
-  <si>
-    <t>    1069</t>
-  </si>
-  <si>
-    <t>    1119</t>
-  </si>
-  <si>
-    <t>    1167</t>
-  </si>
-  <si>
-    <t>    1171</t>
-  </si>
-  <si>
-    <t>    1113</t>
-  </si>
-  <si>
-    <t>    1044</t>
-  </si>
 </sst>
 </file>
 
@@ -1323,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1436,6 +1400,42 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1444,18 +1444,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1482,55 +1487,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1818,10 +1779,10 @@
   <dimension ref="A1:HV109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="10" topLeftCell="M92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H111" sqref="H111"/>
+      <selection pane="bottomRight" activeCell="Z111" sqref="Z111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1855,238 +1816,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:230" x14ac:dyDescent="0.3">
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="55" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="46" t="s">
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="42"/>
+      <c r="BJ1" s="42"/>
+      <c r="BK1" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="47"/>
-      <c r="BQ1" s="47"/>
-      <c r="BR1" s="47"/>
-      <c r="BS1" s="47"/>
-      <c r="BT1" s="47"/>
-      <c r="BU1" s="47"/>
-      <c r="BV1" s="47"/>
-      <c r="BW1" s="49" t="s">
+      <c r="BL1" s="39"/>
+      <c r="BM1" s="39"/>
+      <c r="BN1" s="39"/>
+      <c r="BO1" s="39"/>
+      <c r="BP1" s="39"/>
+      <c r="BQ1" s="39"/>
+      <c r="BR1" s="39"/>
+      <c r="BS1" s="39"/>
+      <c r="BT1" s="39"/>
+      <c r="BU1" s="39"/>
+      <c r="BV1" s="39"/>
+      <c r="BW1" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="BX1" s="50"/>
-      <c r="BY1" s="50"/>
-      <c r="BZ1" s="50"/>
-      <c r="CA1" s="50"/>
-      <c r="CB1" s="50"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="50"/>
-      <c r="CE1" s="50"/>
-      <c r="CF1" s="50"/>
-      <c r="CG1" s="50"/>
-      <c r="CH1" s="50"/>
-      <c r="CI1" s="50"/>
-      <c r="CJ1" s="50"/>
-      <c r="CK1" s="50"/>
-      <c r="CL1" s="50"/>
-      <c r="CM1" s="50"/>
-      <c r="CN1" s="50"/>
-      <c r="CO1" s="50"/>
-      <c r="CP1" s="50"/>
-      <c r="CQ1" s="50"/>
-      <c r="CR1" s="50"/>
-      <c r="CS1" s="50"/>
-      <c r="CT1" s="50"/>
-      <c r="CU1" s="50"/>
-      <c r="CV1" s="50"/>
-      <c r="CW1" s="50"/>
-      <c r="CX1" s="50"/>
-      <c r="CY1" s="50"/>
-      <c r="CZ1" s="50"/>
-      <c r="DA1" s="50"/>
-      <c r="DB1" s="50"/>
-      <c r="DC1" s="50"/>
-      <c r="DD1" s="50"/>
-      <c r="DE1" s="50"/>
-      <c r="DF1" s="51"/>
-      <c r="DG1" s="46" t="s">
+      <c r="BX1" s="46"/>
+      <c r="BY1" s="46"/>
+      <c r="BZ1" s="46"/>
+      <c r="CA1" s="46"/>
+      <c r="CB1" s="46"/>
+      <c r="CC1" s="46"/>
+      <c r="CD1" s="46"/>
+      <c r="CE1" s="46"/>
+      <c r="CF1" s="46"/>
+      <c r="CG1" s="46"/>
+      <c r="CH1" s="46"/>
+      <c r="CI1" s="46"/>
+      <c r="CJ1" s="46"/>
+      <c r="CK1" s="46"/>
+      <c r="CL1" s="46"/>
+      <c r="CM1" s="46"/>
+      <c r="CN1" s="46"/>
+      <c r="CO1" s="46"/>
+      <c r="CP1" s="46"/>
+      <c r="CQ1" s="46"/>
+      <c r="CR1" s="46"/>
+      <c r="CS1" s="46"/>
+      <c r="CT1" s="46"/>
+      <c r="CU1" s="46"/>
+      <c r="CV1" s="46"/>
+      <c r="CW1" s="46"/>
+      <c r="CX1" s="46"/>
+      <c r="CY1" s="46"/>
+      <c r="CZ1" s="46"/>
+      <c r="DA1" s="46"/>
+      <c r="DB1" s="46"/>
+      <c r="DC1" s="46"/>
+      <c r="DD1" s="46"/>
+      <c r="DE1" s="46"/>
+      <c r="DF1" s="47"/>
+      <c r="DG1" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="DH1" s="47"/>
-      <c r="DI1" s="47"/>
-      <c r="DJ1" s="47"/>
-      <c r="DK1" s="47"/>
-      <c r="DL1" s="47"/>
-      <c r="DM1" s="47"/>
-      <c r="DN1" s="47"/>
-      <c r="DO1" s="47"/>
-      <c r="DP1" s="47"/>
-      <c r="DQ1" s="47"/>
-      <c r="DR1" s="47"/>
-      <c r="DS1" s="47"/>
-      <c r="DT1" s="47"/>
-      <c r="DU1" s="47"/>
-      <c r="DV1" s="47"/>
-      <c r="DW1" s="47"/>
-      <c r="DX1" s="47"/>
-      <c r="DY1" s="47"/>
-      <c r="DZ1" s="47"/>
-      <c r="EA1" s="47"/>
-      <c r="EB1" s="47"/>
-      <c r="EC1" s="47"/>
-      <c r="ED1" s="47"/>
-      <c r="EE1" s="47"/>
-      <c r="EF1" s="47"/>
-      <c r="EG1" s="47"/>
-      <c r="EH1" s="47"/>
-      <c r="EI1" s="47"/>
-      <c r="EJ1" s="47"/>
-      <c r="EK1" s="47"/>
-      <c r="EL1" s="47"/>
-      <c r="EM1" s="47"/>
-      <c r="EN1" s="47"/>
-      <c r="EO1" s="47"/>
-      <c r="EP1" s="48"/>
-      <c r="EQ1" s="49" t="s">
+      <c r="DH1" s="39"/>
+      <c r="DI1" s="39"/>
+      <c r="DJ1" s="39"/>
+      <c r="DK1" s="39"/>
+      <c r="DL1" s="39"/>
+      <c r="DM1" s="39"/>
+      <c r="DN1" s="39"/>
+      <c r="DO1" s="39"/>
+      <c r="DP1" s="39"/>
+      <c r="DQ1" s="39"/>
+      <c r="DR1" s="39"/>
+      <c r="DS1" s="39"/>
+      <c r="DT1" s="39"/>
+      <c r="DU1" s="39"/>
+      <c r="DV1" s="39"/>
+      <c r="DW1" s="39"/>
+      <c r="DX1" s="39"/>
+      <c r="DY1" s="39"/>
+      <c r="DZ1" s="39"/>
+      <c r="EA1" s="39"/>
+      <c r="EB1" s="39"/>
+      <c r="EC1" s="39"/>
+      <c r="ED1" s="39"/>
+      <c r="EE1" s="39"/>
+      <c r="EF1" s="39"/>
+      <c r="EG1" s="39"/>
+      <c r="EH1" s="39"/>
+      <c r="EI1" s="39"/>
+      <c r="EJ1" s="39"/>
+      <c r="EK1" s="39"/>
+      <c r="EL1" s="39"/>
+      <c r="EM1" s="39"/>
+      <c r="EN1" s="39"/>
+      <c r="EO1" s="39"/>
+      <c r="EP1" s="40"/>
+      <c r="EQ1" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="ER1" s="50"/>
-      <c r="ES1" s="50"/>
-      <c r="ET1" s="50"/>
-      <c r="EU1" s="50"/>
-      <c r="EV1" s="50"/>
-      <c r="EW1" s="50"/>
-      <c r="EX1" s="50"/>
-      <c r="EY1" s="50"/>
-      <c r="EZ1" s="50"/>
-      <c r="FA1" s="50"/>
-      <c r="FB1" s="50"/>
-      <c r="FC1" s="50"/>
-      <c r="FD1" s="50"/>
-      <c r="FE1" s="50"/>
-      <c r="FF1" s="50"/>
-      <c r="FG1" s="50"/>
-      <c r="FH1" s="50"/>
-      <c r="FI1" s="50"/>
-      <c r="FJ1" s="50"/>
-      <c r="FK1" s="50"/>
-      <c r="FL1" s="50"/>
-      <c r="FM1" s="50"/>
-      <c r="FN1" s="50"/>
-      <c r="FO1" s="50"/>
-      <c r="FP1" s="50"/>
-      <c r="FQ1" s="50"/>
-      <c r="FR1" s="50"/>
-      <c r="FS1" s="50"/>
-      <c r="FT1" s="50"/>
-      <c r="FU1" s="50"/>
-      <c r="FV1" s="50"/>
-      <c r="FW1" s="50"/>
-      <c r="FX1" s="50"/>
-      <c r="FY1" s="50"/>
-      <c r="FZ1" s="51"/>
-      <c r="GA1" s="46" t="s">
+      <c r="ER1" s="46"/>
+      <c r="ES1" s="46"/>
+      <c r="ET1" s="46"/>
+      <c r="EU1" s="46"/>
+      <c r="EV1" s="46"/>
+      <c r="EW1" s="46"/>
+      <c r="EX1" s="46"/>
+      <c r="EY1" s="46"/>
+      <c r="EZ1" s="46"/>
+      <c r="FA1" s="46"/>
+      <c r="FB1" s="46"/>
+      <c r="FC1" s="46"/>
+      <c r="FD1" s="46"/>
+      <c r="FE1" s="46"/>
+      <c r="FF1" s="46"/>
+      <c r="FG1" s="46"/>
+      <c r="FH1" s="46"/>
+      <c r="FI1" s="46"/>
+      <c r="FJ1" s="46"/>
+      <c r="FK1" s="46"/>
+      <c r="FL1" s="46"/>
+      <c r="FM1" s="46"/>
+      <c r="FN1" s="46"/>
+      <c r="FO1" s="46"/>
+      <c r="FP1" s="46"/>
+      <c r="FQ1" s="46"/>
+      <c r="FR1" s="46"/>
+      <c r="FS1" s="46"/>
+      <c r="FT1" s="46"/>
+      <c r="FU1" s="46"/>
+      <c r="FV1" s="46"/>
+      <c r="FW1" s="46"/>
+      <c r="FX1" s="46"/>
+      <c r="FY1" s="46"/>
+      <c r="FZ1" s="47"/>
+      <c r="GA1" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="GB1" s="47"/>
-      <c r="GC1" s="47"/>
-      <c r="GD1" s="47"/>
-      <c r="GE1" s="47"/>
-      <c r="GF1" s="47"/>
-      <c r="GG1" s="47"/>
-      <c r="GH1" s="47"/>
-      <c r="GI1" s="47"/>
-      <c r="GJ1" s="47"/>
-      <c r="GK1" s="47"/>
-      <c r="GL1" s="47"/>
-      <c r="GM1" s="52" t="s">
+      <c r="GB1" s="39"/>
+      <c r="GC1" s="39"/>
+      <c r="GD1" s="39"/>
+      <c r="GE1" s="39"/>
+      <c r="GF1" s="39"/>
+      <c r="GG1" s="39"/>
+      <c r="GH1" s="39"/>
+      <c r="GI1" s="39"/>
+      <c r="GJ1" s="39"/>
+      <c r="GK1" s="39"/>
+      <c r="GL1" s="39"/>
+      <c r="GM1" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="GN1" s="53"/>
-      <c r="GO1" s="53"/>
-      <c r="GP1" s="53"/>
-      <c r="GQ1" s="53"/>
-      <c r="GR1" s="53"/>
-      <c r="GS1" s="53"/>
-      <c r="GT1" s="53"/>
-      <c r="GU1" s="53"/>
-      <c r="GV1" s="53"/>
-      <c r="GW1" s="53"/>
-      <c r="GX1" s="53"/>
-      <c r="GY1" s="53"/>
-      <c r="GZ1" s="53"/>
-      <c r="HA1" s="53"/>
-      <c r="HB1" s="53"/>
-      <c r="HC1" s="53"/>
-      <c r="HD1" s="53"/>
-      <c r="HE1" s="53"/>
-      <c r="HF1" s="53"/>
-      <c r="HG1" s="53"/>
-      <c r="HH1" s="53"/>
-      <c r="HI1" s="53"/>
-      <c r="HJ1" s="53"/>
-      <c r="HK1" s="53"/>
-      <c r="HL1" s="53"/>
-      <c r="HM1" s="53"/>
-      <c r="HN1" s="53"/>
-      <c r="HO1" s="53"/>
-      <c r="HP1" s="53"/>
-      <c r="HQ1" s="53"/>
-      <c r="HR1" s="53"/>
-      <c r="HS1" s="53"/>
-      <c r="HT1" s="53"/>
-      <c r="HU1" s="53"/>
-      <c r="HV1" s="53"/>
+      <c r="GN1" s="49"/>
+      <c r="GO1" s="49"/>
+      <c r="GP1" s="49"/>
+      <c r="GQ1" s="49"/>
+      <c r="GR1" s="49"/>
+      <c r="GS1" s="49"/>
+      <c r="GT1" s="49"/>
+      <c r="GU1" s="49"/>
+      <c r="GV1" s="49"/>
+      <c r="GW1" s="49"/>
+      <c r="GX1" s="49"/>
+      <c r="GY1" s="49"/>
+      <c r="GZ1" s="49"/>
+      <c r="HA1" s="49"/>
+      <c r="HB1" s="49"/>
+      <c r="HC1" s="49"/>
+      <c r="HD1" s="49"/>
+      <c r="HE1" s="49"/>
+      <c r="HF1" s="49"/>
+      <c r="HG1" s="49"/>
+      <c r="HH1" s="49"/>
+      <c r="HI1" s="49"/>
+      <c r="HJ1" s="49"/>
+      <c r="HK1" s="49"/>
+      <c r="HL1" s="49"/>
+      <c r="HM1" s="49"/>
+      <c r="HN1" s="49"/>
+      <c r="HO1" s="49"/>
+      <c r="HP1" s="49"/>
+      <c r="HQ1" s="49"/>
+      <c r="HR1" s="49"/>
+      <c r="HS1" s="49"/>
+      <c r="HT1" s="49"/>
+      <c r="HU1" s="49"/>
+      <c r="HV1" s="49"/>
     </row>
     <row r="2" spans="1:230" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4544,7 +4505,7 @@
       <c r="D6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="34" t="s">
         <v>135</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -5033,7 +4994,7 @@
       <c r="D7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
@@ -5520,7 +5481,7 @@
       <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="35" t="s">
         <v>144</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -6009,7 +5970,7 @@
       <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
@@ -6496,7 +6457,7 @@
       <c r="D10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="54"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6669,7 +6630,7 @@
       <c r="D11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="54"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="5" t="s">
         <v>5</v>
       </c>
@@ -7156,7 +7117,7 @@
       <c r="D12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="5" t="s">
         <v>5</v>
       </c>
@@ -7640,14 +7601,14 @@
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="34" t="str">
+      <c r="D13" s="43" t="str">
         <f>+C13</f>
         <v>CAPACHOS</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="43" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -8324,9 +8285,9 @@
       <c r="C14" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="6" t="s">
         <v>3</v>
       </c>
@@ -8496,7 +8457,7 @@
       <c r="D15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="35" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -9179,7 +9140,7 @@
       <c r="D16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="54"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="5" t="s">
         <v>5</v>
       </c>
@@ -9860,7 +9821,7 @@
       <c r="D17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="5" t="s">
         <v>5</v>
       </c>
@@ -10516,7 +10477,7 @@
       <c r="D18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="54"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
@@ -11007,7 +10968,7 @@
       <c r="D19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="5" t="s">
         <v>5</v>
       </c>
@@ -13226,7 +13187,7 @@
       <c r="D24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="34" t="s">
         <v>139</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -13715,7 +13676,7 @@
       <c r="D25" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="5" t="s">
         <v>5</v>
       </c>
@@ -14202,7 +14163,7 @@
       <c r="D26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="34" t="s">
         <v>136</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -14691,7 +14652,7 @@
       <c r="D27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="5" t="s">
         <v>5</v>
       </c>
@@ -15178,7 +15139,7 @@
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="35" t="s">
         <v>146</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -15763,7 +15724,7 @@
       <c r="D29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="38"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
@@ -18003,7 +17964,7 @@
       <c r="D35" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="51" t="s">
         <v>137</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -18492,7 +18453,7 @@
       <c r="D36" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="41"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="10" t="s">
         <v>5</v>
       </c>
@@ -18980,7 +18941,7 @@
         <f>+D36</f>
         <v>CARACARA</v>
       </c>
-      <c r="E37" s="41"/>
+      <c r="E37" s="51"/>
       <c r="F37" s="10" t="s">
         <v>5</v>
       </c>
@@ -19468,7 +19429,7 @@
         <f>+D37</f>
         <v>CARACARA</v>
       </c>
-      <c r="E38" s="41"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="10" t="s">
         <v>5</v>
       </c>
@@ -19956,7 +19917,7 @@
         <f>+D38</f>
         <v>CARACARA</v>
       </c>
-      <c r="E39" s="41"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="10" t="s">
         <v>5</v>
       </c>
@@ -20443,7 +20404,7 @@
       <c r="D40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="41"/>
+      <c r="E40" s="51"/>
       <c r="F40" s="10" t="s">
         <v>5</v>
       </c>
@@ -20930,7 +20891,7 @@
       <c r="D41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="41"/>
+      <c r="E41" s="51"/>
       <c r="F41" s="10" t="s">
         <v>5</v>
       </c>
@@ -21417,7 +21378,7 @@
       <c r="D42" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="41"/>
+      <c r="E42" s="51"/>
       <c r="F42" s="10" t="s">
         <v>5</v>
       </c>
@@ -21904,7 +21865,7 @@
       <c r="D43" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="41"/>
+      <c r="E43" s="51"/>
       <c r="F43" s="10" t="s">
         <v>5</v>
       </c>
@@ -22391,7 +22352,7 @@
       <c r="D44" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="41"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="10" t="s">
         <v>5</v>
       </c>
@@ -22878,7 +22839,7 @@
       <c r="D45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="41"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="10" t="s">
         <v>5</v>
       </c>
@@ -23359,7 +23320,7 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="56" t="s">
         <v>131</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -23368,7 +23329,7 @@
       <c r="D46" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="51" t="s">
         <v>135</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -23851,14 +23812,14 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="36"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="41"/>
+      <c r="E47" s="51"/>
       <c r="F47" s="10" t="s">
         <v>5</v>
       </c>
@@ -24339,14 +24300,14 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="36"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="41"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="10" t="s">
         <v>5</v>
       </c>
@@ -24827,14 +24788,14 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="36"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="41"/>
+      <c r="E49" s="51"/>
       <c r="F49" s="10" t="s">
         <v>5</v>
       </c>
@@ -25387,14 +25348,14 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="36"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="41"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="10" t="s">
         <v>5</v>
       </c>
@@ -25875,14 +25836,14 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="36"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="41"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="10" t="s">
         <v>5</v>
       </c>
@@ -26363,14 +26324,14 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="36"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="41"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="10" t="s">
         <v>5</v>
       </c>
@@ -26851,14 +26812,14 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="36"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="41"/>
+      <c r="E53" s="51"/>
       <c r="F53" s="10" t="s">
         <v>5</v>
       </c>
@@ -27339,14 +27300,14 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="36"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="41"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="10" t="s">
         <v>5</v>
       </c>
@@ -27827,14 +27788,14 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="36"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="41"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="10" t="s">
         <v>5</v>
       </c>
@@ -28181,14 +28142,14 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="56"/>
       <c r="C56" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="41"/>
+      <c r="E56" s="51"/>
       <c r="F56" s="10" t="s">
         <v>5</v>
       </c>
@@ -28669,14 +28630,14 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="36"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="41"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="10" t="s">
         <v>5</v>
       </c>
@@ -29157,14 +29118,14 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="36"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="41"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="10" t="s">
         <v>5</v>
       </c>
@@ -29645,14 +29606,14 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="36"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="41"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="10" t="s">
         <v>5</v>
       </c>
@@ -30133,14 +30094,14 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="36"/>
+      <c r="B60" s="56"/>
       <c r="C60" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E60" s="41"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="10" t="s">
         <v>5</v>
       </c>
@@ -30621,14 +30582,14 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="36"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="41"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="10" t="s">
         <v>5</v>
       </c>
@@ -31109,14 +31070,14 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="36"/>
+      <c r="B62" s="56"/>
       <c r="C62" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E62" s="41"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="10" t="s">
         <v>5</v>
       </c>
@@ -31597,14 +31558,14 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="36"/>
+      <c r="B63" s="56"/>
       <c r="C63" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="41"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="10" t="s">
         <v>5</v>
       </c>
@@ -32085,14 +32046,14 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="36"/>
+      <c r="B64" s="56"/>
       <c r="C64" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E64" s="41"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="10" t="s">
         <v>5</v>
       </c>
@@ -32573,14 +32534,14 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="36"/>
+      <c r="B65" s="56"/>
       <c r="C65" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E65" s="41"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="10" t="s">
         <v>5</v>
       </c>
@@ -33036,14 +32997,14 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="36"/>
+      <c r="B66" s="56"/>
       <c r="C66" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E66" s="41"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="10" t="s">
         <v>5</v>
       </c>
@@ -33524,14 +33485,14 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="36"/>
+      <c r="B67" s="56"/>
       <c r="C67" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E67" s="41"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="10" t="s">
         <v>5</v>
       </c>
@@ -33987,14 +33948,14 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="36"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="41"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="10" t="s">
         <v>5</v>
       </c>
@@ -34450,14 +34411,14 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="36"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="41"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="10" t="s">
         <v>5</v>
       </c>
@@ -34938,14 +34899,14 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="36"/>
+      <c r="B70" s="56"/>
       <c r="C70" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="41"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="10" t="s">
         <v>5</v>
       </c>
@@ -35426,14 +35387,14 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="36"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="41"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="10" t="s">
         <v>5</v>
       </c>
@@ -35914,14 +35875,14 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="36"/>
+      <c r="B72" s="56"/>
       <c r="C72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="41"/>
+      <c r="E72" s="51"/>
       <c r="F72" s="10" t="s">
         <v>5</v>
       </c>
@@ -36402,14 +36363,14 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="36"/>
+      <c r="B73" s="56"/>
       <c r="C73" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E73" s="41"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="10" t="s">
         <v>5</v>
       </c>
@@ -36890,14 +36851,14 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="36"/>
+      <c r="B74" s="56"/>
       <c r="C74" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E74" s="41"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="10" t="s">
         <v>5</v>
       </c>
@@ -37378,14 +37339,14 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="36"/>
+      <c r="B75" s="56"/>
       <c r="C75" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E75" s="41"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="10" t="s">
         <v>5</v>
       </c>
@@ -37866,14 +37827,14 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="36"/>
+      <c r="B76" s="56"/>
       <c r="C76" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="41"/>
+      <c r="E76" s="51"/>
       <c r="F76" s="10" t="s">
         <v>5</v>
       </c>
@@ -38354,7 +38315,7 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -38363,7 +38324,7 @@
       <c r="D77" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="42" t="s">
+      <c r="E77" s="52" t="s">
         <v>140</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -38846,14 +38807,14 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="40"/>
+      <c r="B78" s="50"/>
       <c r="C78" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E78" s="42"/>
+      <c r="E78" s="52"/>
       <c r="F78" s="10" t="s">
         <v>5</v>
       </c>
@@ -39334,14 +39295,14 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="40"/>
+      <c r="B79" s="50"/>
       <c r="C79" s="7" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="42"/>
+      <c r="E79" s="52"/>
       <c r="F79" s="10" t="s">
         <v>5</v>
       </c>
@@ -39822,14 +39783,14 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="40"/>
+      <c r="B80" s="50"/>
       <c r="C80" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E80" s="42"/>
+      <c r="E80" s="52"/>
       <c r="F80" s="10" t="s">
         <v>5</v>
       </c>
@@ -39988,14 +39949,14 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="40"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E81" s="42"/>
+      <c r="E81" s="52"/>
       <c r="F81" s="10" t="s">
         <v>5</v>
       </c>
@@ -40154,14 +40115,14 @@
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="40"/>
+      <c r="B82" s="50"/>
       <c r="C82" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E82" s="42"/>
+      <c r="E82" s="52"/>
       <c r="F82" s="10" t="s">
         <v>5</v>
       </c>
@@ -40642,14 +40603,14 @@
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="40"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="42"/>
+      <c r="E83" s="52"/>
       <c r="F83" s="10" t="s">
         <v>5</v>
       </c>
@@ -41130,14 +41091,14 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="40"/>
+      <c r="B84" s="50"/>
       <c r="C84" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E84" s="42"/>
+      <c r="E84" s="52"/>
       <c r="F84" s="10" t="s">
         <v>5</v>
       </c>
@@ -41618,14 +41579,14 @@
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="40"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E85" s="42"/>
+      <c r="E85" s="52"/>
       <c r="F85" s="10" t="s">
         <v>5</v>
       </c>
@@ -42106,7 +42067,7 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="40"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="7" t="s">
         <v>120</v>
       </c>
@@ -42114,7 +42075,7 @@
         <f>+D85</f>
         <v>COSECHA</v>
       </c>
-      <c r="E86" s="42"/>
+      <c r="E86" s="52"/>
       <c r="F86" s="10" t="s">
         <v>5</v>
       </c>
@@ -42595,14 +42556,14 @@
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="40"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E87" s="42"/>
+      <c r="E87" s="52"/>
       <c r="F87" s="10" t="s">
         <v>5</v>
       </c>
@@ -43083,14 +43044,14 @@
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="40"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E88" s="42"/>
+      <c r="E88" s="52"/>
       <c r="F88" s="10" t="s">
         <v>5</v>
       </c>
@@ -43571,14 +43532,14 @@
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="40"/>
+      <c r="B89" s="50"/>
       <c r="C89" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E89" s="42"/>
+      <c r="E89" s="52"/>
       <c r="F89" s="10" t="s">
         <v>5</v>
       </c>
@@ -44059,14 +44020,14 @@
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="40"/>
+      <c r="B90" s="50"/>
       <c r="C90" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E90" s="42"/>
+      <c r="E90" s="52"/>
       <c r="F90" s="10" t="s">
         <v>5</v>
       </c>
@@ -44547,14 +44508,14 @@
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="40"/>
+      <c r="B91" s="50"/>
       <c r="C91" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E91" s="42"/>
+      <c r="E91" s="52"/>
       <c r="F91" s="10" t="s">
         <v>5</v>
       </c>
@@ -45035,14 +44996,14 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="40"/>
+      <c r="B92" s="50"/>
       <c r="C92" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E92" s="42"/>
+      <c r="E92" s="52"/>
       <c r="F92" s="10" t="s">
         <v>5</v>
       </c>
@@ -45523,14 +45484,14 @@
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="40"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E93" s="42"/>
+      <c r="E93" s="52"/>
       <c r="F93" s="10" t="s">
         <v>5</v>
       </c>
@@ -46011,14 +45972,14 @@
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="40"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E94" s="42"/>
+      <c r="E94" s="52"/>
       <c r="F94" s="10" t="s">
         <v>5</v>
       </c>
@@ -46499,14 +46460,14 @@
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="40"/>
+      <c r="B95" s="50"/>
       <c r="C95" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E95" s="42"/>
+      <c r="E95" s="52"/>
       <c r="F95" s="10" t="s">
         <v>5</v>
       </c>
@@ -46987,14 +46948,14 @@
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="40"/>
+      <c r="B96" s="50"/>
       <c r="C96" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E96" s="42"/>
+      <c r="E96" s="52"/>
       <c r="F96" s="10" t="s">
         <v>5</v>
       </c>
@@ -47475,14 +47436,14 @@
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="40"/>
+      <c r="B97" s="50"/>
       <c r="C97" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E97" s="42"/>
+      <c r="E97" s="52"/>
       <c r="F97" s="10" t="s">
         <v>5</v>
       </c>
@@ -47963,14 +47924,14 @@
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="40"/>
+      <c r="B98" s="50"/>
       <c r="C98" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E98" s="42"/>
+      <c r="E98" s="52"/>
       <c r="F98" s="10" t="s">
         <v>5</v>
       </c>
@@ -48349,7 +48310,7 @@
       <c r="D99" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E99" s="43" t="s">
+      <c r="E99" s="53" t="s">
         <v>142</v>
       </c>
       <c r="F99" s="8" t="s">
@@ -48838,7 +48799,7 @@
       <c r="D100" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="44"/>
+      <c r="E100" s="54"/>
       <c r="F100" s="8" t="s">
         <v>2</v>
       </c>
@@ -49325,7 +49286,7 @@
       <c r="D101" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="44"/>
+      <c r="E101" s="54"/>
       <c r="F101" s="8" t="s">
         <v>2</v>
       </c>
@@ -49787,7 +49748,7 @@
       <c r="D102" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="44"/>
+      <c r="E102" s="54"/>
       <c r="F102" s="8" t="s">
         <v>2</v>
       </c>
@@ -50274,7 +50235,7 @@
       <c r="D103" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="44"/>
+      <c r="E103" s="54"/>
       <c r="F103" s="8" t="s">
         <v>2</v>
       </c>
@@ -50761,7 +50722,7 @@
       <c r="D104" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="44"/>
+      <c r="E104" s="54"/>
       <c r="F104" s="8" t="s">
         <v>2</v>
       </c>
@@ -51248,7 +51209,7 @@
       <c r="D105" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="45"/>
+      <c r="E105" s="55"/>
       <c r="F105" s="14" t="s">
         <v>2</v>
       </c>
@@ -51421,7 +51382,7 @@
       <c r="D106" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E106" s="41" t="s">
+      <c r="E106" s="51" t="s">
         <v>145</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -52006,7 +51967,7 @@
       <c r="D107" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E107" s="41"/>
+      <c r="E107" s="51"/>
       <c r="F107" s="8" t="s">
         <v>2</v>
       </c>
@@ -52589,41 +52550,41 @@
       <c r="L108" s="26">
         <v>7.8859620482970738E-2</v>
       </c>
-      <c r="O108" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="P108" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q108" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="R108" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="S108" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="T108" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="U108" s="58" t="s">
-        <v>294</v>
-      </c>
-      <c r="V108" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="W108" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="X108" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y108" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z108" s="58" t="s">
-        <v>299</v>
+      <c r="O108" s="18">
+        <v>1096</v>
+      </c>
+      <c r="P108" s="18">
+        <v>1161</v>
+      </c>
+      <c r="Q108" s="18">
+        <v>1208</v>
+      </c>
+      <c r="R108" s="18">
+        <v>1269</v>
+      </c>
+      <c r="S108" s="18">
+        <v>1245</v>
+      </c>
+      <c r="T108" s="18">
+        <v>1134</v>
+      </c>
+      <c r="U108" s="18">
+        <v>1069</v>
+      </c>
+      <c r="V108" s="18">
+        <v>1119</v>
+      </c>
+      <c r="W108" s="18">
+        <v>1167</v>
+      </c>
+      <c r="X108" s="18">
+        <v>1171</v>
+      </c>
+      <c r="Y108" s="18">
+        <v>1113</v>
+      </c>
+      <c r="Z108" s="18">
+        <v>1044</v>
       </c>
       <c r="AA108" s="18">
         <v>1071.5552346017619</v>
@@ -53360,30 +53321,30 @@
     <sortCondition ref="D2"/>
   </sortState>
   <mergeCells count="24">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B46:B76"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B77:B98"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E77:E98"/>
+    <mergeCell ref="E35:E45"/>
+    <mergeCell ref="E46:E76"/>
+    <mergeCell ref="E99:E105"/>
+    <mergeCell ref="BK1:BV1"/>
+    <mergeCell ref="DG1:EP1"/>
+    <mergeCell ref="EQ1:FZ1"/>
+    <mergeCell ref="GA1:GL1"/>
+    <mergeCell ref="GM1:HV1"/>
+    <mergeCell ref="BW1:DF1"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="O1:AX1"/>
     <mergeCell ref="AY1:BJ1"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="BK1:BV1"/>
-    <mergeCell ref="DG1:EP1"/>
-    <mergeCell ref="EQ1:FZ1"/>
-    <mergeCell ref="GA1:GL1"/>
-    <mergeCell ref="GM1:HV1"/>
-    <mergeCell ref="BW1:DF1"/>
-    <mergeCell ref="B77:B98"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E77:E98"/>
-    <mergeCell ref="E35:E45"/>
-    <mergeCell ref="E46:E76"/>
-    <mergeCell ref="E99:E105"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B46:B76"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -76862,12 +76823,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E236946BD814C54BB22A20EFB5E1111D" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="86f63bfa0d0969920d40911bc9216014">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7cd710cb-49ab-46db-a349-b062c519cda6" xmlns:ns4="6c75cb1f-1e2b-49d1-8289-20651f4935b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="485088cba347f8b48a697c46e301beb3" ns3:_="" ns4:_="">
     <xsd:import namespace="7cd710cb-49ab-46db-a349-b062c519cda6"/>
@@ -77090,6 +77045,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
   <ds:schemaRefs>
@@ -77099,23 +77060,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C617D9-8064-4F9E-848F-971B706D488A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B88C0C9-65FE-4E9F-BA05-E989639448E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -77132,4 +77076,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C617D9-8064-4F9E-848F-971B706D488A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Bleidis surveillance ii.xlsx
+++ b/Bleidis surveillance ii.xlsx
@@ -1782,7 +1782,7 @@
       <pane xSplit="6" ySplit="10" topLeftCell="M92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="Z111" sqref="Z111"/>
+      <selection pane="bottomRight" activeCell="Q109" sqref="Q109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Bleidis surveillance ii.xlsx
+++ b/Bleidis surveillance ii.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dellphoto\Documents\ecopetrol_2021\ecopetrol_2021\seguimiento_otros_campos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dellphoto\Documents\ecopetrol_2021\ecopetrol_2021\seguimiento_otros_campos\pop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16812" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1 (2)" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1 (2)'!$A$2:$GX$109</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja1 (2)'!$C$2:$G$108</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1400,42 +1400,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1444,23 +1408,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1487,8 +1446,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1778,278 +1778,277 @@
   </sheetPr>
   <dimension ref="A1:HV109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="M92" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="6" ySplit="10" topLeftCell="AR41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="Q109" sqref="Q109"/>
+      <selection pane="bottomRight" activeCell="AY14" sqref="AY14:BH14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="23" customWidth="1"/>
-    <col min="12" max="14" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="23" customWidth="1"/>
+    <col min="12" max="14" width="11.5703125" customWidth="1"/>
     <col min="15" max="15" width="6" style="18" customWidth="1"/>
     <col min="16" max="17" width="6" style="19" customWidth="1"/>
     <col min="18" max="25" width="10" style="19" customWidth="1"/>
     <col min="26" max="26" width="10" style="20" customWidth="1"/>
-    <col min="27" max="50" width="6.109375" style="19" customWidth="1"/>
+    <col min="27" max="50" width="6.140625" style="19" customWidth="1"/>
     <col min="51" max="51" width="6" style="18" customWidth="1"/>
     <col min="52" max="56" width="6" style="19" customWidth="1"/>
-    <col min="57" max="61" width="5.109375" style="19" customWidth="1"/>
-    <col min="62" max="62" width="5.109375" style="20" customWidth="1"/>
-    <col min="63" max="63" width="5.109375" style="18" customWidth="1"/>
-    <col min="64" max="73" width="5.109375" style="19" customWidth="1"/>
-    <col min="74" max="74" width="5.109375" style="20" customWidth="1"/>
-    <col min="75" max="75" width="9.33203125" style="18" customWidth="1"/>
-    <col min="76" max="85" width="5.109375" style="19" customWidth="1"/>
-    <col min="86" max="86" width="5.109375" style="20" customWidth="1"/>
-    <col min="87" max="110" width="5.109375" style="19" customWidth="1"/>
-    <col min="111" max="351" width="5.109375" customWidth="1"/>
+    <col min="57" max="62" width="5.140625" style="19" customWidth="1"/>
+    <col min="63" max="63" width="5.140625" style="18" customWidth="1"/>
+    <col min="64" max="73" width="5.140625" style="19" customWidth="1"/>
+    <col min="74" max="74" width="5.140625" style="20" customWidth="1"/>
+    <col min="75" max="75" width="9.28515625" style="18" customWidth="1"/>
+    <col min="76" max="85" width="5.140625" style="19" customWidth="1"/>
+    <col min="86" max="86" width="5.140625" style="20" customWidth="1"/>
+    <col min="87" max="110" width="5.140625" style="19" customWidth="1"/>
+    <col min="111" max="351" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:230" x14ac:dyDescent="0.3">
-      <c r="O1" s="38" t="s">
+    <row r="1" spans="1:230" x14ac:dyDescent="0.25">
+      <c r="O1" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="41" t="s">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="42"/>
-      <c r="BJ1" s="42"/>
-      <c r="BK1" s="38" t="s">
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="BL1" s="39"/>
-      <c r="BM1" s="39"/>
-      <c r="BN1" s="39"/>
-      <c r="BO1" s="39"/>
-      <c r="BP1" s="39"/>
-      <c r="BQ1" s="39"/>
-      <c r="BR1" s="39"/>
-      <c r="BS1" s="39"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="39"/>
-      <c r="BV1" s="39"/>
-      <c r="BW1" s="45" t="s">
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="47"/>
+      <c r="BP1" s="47"/>
+      <c r="BQ1" s="47"/>
+      <c r="BR1" s="47"/>
+      <c r="BS1" s="47"/>
+      <c r="BT1" s="47"/>
+      <c r="BU1" s="47"/>
+      <c r="BV1" s="47"/>
+      <c r="BW1" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="BX1" s="46"/>
-      <c r="BY1" s="46"/>
-      <c r="BZ1" s="46"/>
-      <c r="CA1" s="46"/>
-      <c r="CB1" s="46"/>
-      <c r="CC1" s="46"/>
-      <c r="CD1" s="46"/>
-      <c r="CE1" s="46"/>
-      <c r="CF1" s="46"/>
-      <c r="CG1" s="46"/>
-      <c r="CH1" s="46"/>
-      <c r="CI1" s="46"/>
-      <c r="CJ1" s="46"/>
-      <c r="CK1" s="46"/>
-      <c r="CL1" s="46"/>
-      <c r="CM1" s="46"/>
-      <c r="CN1" s="46"/>
-      <c r="CO1" s="46"/>
-      <c r="CP1" s="46"/>
-      <c r="CQ1" s="46"/>
-      <c r="CR1" s="46"/>
-      <c r="CS1" s="46"/>
-      <c r="CT1" s="46"/>
-      <c r="CU1" s="46"/>
-      <c r="CV1" s="46"/>
-      <c r="CW1" s="46"/>
-      <c r="CX1" s="46"/>
-      <c r="CY1" s="46"/>
-      <c r="CZ1" s="46"/>
-      <c r="DA1" s="46"/>
-      <c r="DB1" s="46"/>
-      <c r="DC1" s="46"/>
-      <c r="DD1" s="46"/>
-      <c r="DE1" s="46"/>
-      <c r="DF1" s="47"/>
-      <c r="DG1" s="38" t="s">
+      <c r="BX1" s="50"/>
+      <c r="BY1" s="50"/>
+      <c r="BZ1" s="50"/>
+      <c r="CA1" s="50"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
+      <c r="CI1" s="50"/>
+      <c r="CJ1" s="50"/>
+      <c r="CK1" s="50"/>
+      <c r="CL1" s="50"/>
+      <c r="CM1" s="50"/>
+      <c r="CN1" s="50"/>
+      <c r="CO1" s="50"/>
+      <c r="CP1" s="50"/>
+      <c r="CQ1" s="50"/>
+      <c r="CR1" s="50"/>
+      <c r="CS1" s="50"/>
+      <c r="CT1" s="50"/>
+      <c r="CU1" s="50"/>
+      <c r="CV1" s="50"/>
+      <c r="CW1" s="50"/>
+      <c r="CX1" s="50"/>
+      <c r="CY1" s="50"/>
+      <c r="CZ1" s="50"/>
+      <c r="DA1" s="50"/>
+      <c r="DB1" s="50"/>
+      <c r="DC1" s="50"/>
+      <c r="DD1" s="50"/>
+      <c r="DE1" s="50"/>
+      <c r="DF1" s="51"/>
+      <c r="DG1" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="DH1" s="39"/>
-      <c r="DI1" s="39"/>
-      <c r="DJ1" s="39"/>
-      <c r="DK1" s="39"/>
-      <c r="DL1" s="39"/>
-      <c r="DM1" s="39"/>
-      <c r="DN1" s="39"/>
-      <c r="DO1" s="39"/>
-      <c r="DP1" s="39"/>
-      <c r="DQ1" s="39"/>
-      <c r="DR1" s="39"/>
-      <c r="DS1" s="39"/>
-      <c r="DT1" s="39"/>
-      <c r="DU1" s="39"/>
-      <c r="DV1" s="39"/>
-      <c r="DW1" s="39"/>
-      <c r="DX1" s="39"/>
-      <c r="DY1" s="39"/>
-      <c r="DZ1" s="39"/>
-      <c r="EA1" s="39"/>
-      <c r="EB1" s="39"/>
-      <c r="EC1" s="39"/>
-      <c r="ED1" s="39"/>
-      <c r="EE1" s="39"/>
-      <c r="EF1" s="39"/>
-      <c r="EG1" s="39"/>
-      <c r="EH1" s="39"/>
-      <c r="EI1" s="39"/>
-      <c r="EJ1" s="39"/>
-      <c r="EK1" s="39"/>
-      <c r="EL1" s="39"/>
-      <c r="EM1" s="39"/>
-      <c r="EN1" s="39"/>
-      <c r="EO1" s="39"/>
-      <c r="EP1" s="40"/>
-      <c r="EQ1" s="45" t="s">
+      <c r="DH1" s="47"/>
+      <c r="DI1" s="47"/>
+      <c r="DJ1" s="47"/>
+      <c r="DK1" s="47"/>
+      <c r="DL1" s="47"/>
+      <c r="DM1" s="47"/>
+      <c r="DN1" s="47"/>
+      <c r="DO1" s="47"/>
+      <c r="DP1" s="47"/>
+      <c r="DQ1" s="47"/>
+      <c r="DR1" s="47"/>
+      <c r="DS1" s="47"/>
+      <c r="DT1" s="47"/>
+      <c r="DU1" s="47"/>
+      <c r="DV1" s="47"/>
+      <c r="DW1" s="47"/>
+      <c r="DX1" s="47"/>
+      <c r="DY1" s="47"/>
+      <c r="DZ1" s="47"/>
+      <c r="EA1" s="47"/>
+      <c r="EB1" s="47"/>
+      <c r="EC1" s="47"/>
+      <c r="ED1" s="47"/>
+      <c r="EE1" s="47"/>
+      <c r="EF1" s="47"/>
+      <c r="EG1" s="47"/>
+      <c r="EH1" s="47"/>
+      <c r="EI1" s="47"/>
+      <c r="EJ1" s="47"/>
+      <c r="EK1" s="47"/>
+      <c r="EL1" s="47"/>
+      <c r="EM1" s="47"/>
+      <c r="EN1" s="47"/>
+      <c r="EO1" s="47"/>
+      <c r="EP1" s="48"/>
+      <c r="EQ1" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="ER1" s="46"/>
-      <c r="ES1" s="46"/>
-      <c r="ET1" s="46"/>
-      <c r="EU1" s="46"/>
-      <c r="EV1" s="46"/>
-      <c r="EW1" s="46"/>
-      <c r="EX1" s="46"/>
-      <c r="EY1" s="46"/>
-      <c r="EZ1" s="46"/>
-      <c r="FA1" s="46"/>
-      <c r="FB1" s="46"/>
-      <c r="FC1" s="46"/>
-      <c r="FD1" s="46"/>
-      <c r="FE1" s="46"/>
-      <c r="FF1" s="46"/>
-      <c r="FG1" s="46"/>
-      <c r="FH1" s="46"/>
-      <c r="FI1" s="46"/>
-      <c r="FJ1" s="46"/>
-      <c r="FK1" s="46"/>
-      <c r="FL1" s="46"/>
-      <c r="FM1" s="46"/>
-      <c r="FN1" s="46"/>
-      <c r="FO1" s="46"/>
-      <c r="FP1" s="46"/>
-      <c r="FQ1" s="46"/>
-      <c r="FR1" s="46"/>
-      <c r="FS1" s="46"/>
-      <c r="FT1" s="46"/>
-      <c r="FU1" s="46"/>
-      <c r="FV1" s="46"/>
-      <c r="FW1" s="46"/>
-      <c r="FX1" s="46"/>
-      <c r="FY1" s="46"/>
-      <c r="FZ1" s="47"/>
-      <c r="GA1" s="38" t="s">
+      <c r="ER1" s="50"/>
+      <c r="ES1" s="50"/>
+      <c r="ET1" s="50"/>
+      <c r="EU1" s="50"/>
+      <c r="EV1" s="50"/>
+      <c r="EW1" s="50"/>
+      <c r="EX1" s="50"/>
+      <c r="EY1" s="50"/>
+      <c r="EZ1" s="50"/>
+      <c r="FA1" s="50"/>
+      <c r="FB1" s="50"/>
+      <c r="FC1" s="50"/>
+      <c r="FD1" s="50"/>
+      <c r="FE1" s="50"/>
+      <c r="FF1" s="50"/>
+      <c r="FG1" s="50"/>
+      <c r="FH1" s="50"/>
+      <c r="FI1" s="50"/>
+      <c r="FJ1" s="50"/>
+      <c r="FK1" s="50"/>
+      <c r="FL1" s="50"/>
+      <c r="FM1" s="50"/>
+      <c r="FN1" s="50"/>
+      <c r="FO1" s="50"/>
+      <c r="FP1" s="50"/>
+      <c r="FQ1" s="50"/>
+      <c r="FR1" s="50"/>
+      <c r="FS1" s="50"/>
+      <c r="FT1" s="50"/>
+      <c r="FU1" s="50"/>
+      <c r="FV1" s="50"/>
+      <c r="FW1" s="50"/>
+      <c r="FX1" s="50"/>
+      <c r="FY1" s="50"/>
+      <c r="FZ1" s="51"/>
+      <c r="GA1" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="GB1" s="39"/>
-      <c r="GC1" s="39"/>
-      <c r="GD1" s="39"/>
-      <c r="GE1" s="39"/>
-      <c r="GF1" s="39"/>
-      <c r="GG1" s="39"/>
-      <c r="GH1" s="39"/>
-      <c r="GI1" s="39"/>
-      <c r="GJ1" s="39"/>
-      <c r="GK1" s="39"/>
-      <c r="GL1" s="39"/>
-      <c r="GM1" s="48" t="s">
+      <c r="GB1" s="47"/>
+      <c r="GC1" s="47"/>
+      <c r="GD1" s="47"/>
+      <c r="GE1" s="47"/>
+      <c r="GF1" s="47"/>
+      <c r="GG1" s="47"/>
+      <c r="GH1" s="47"/>
+      <c r="GI1" s="47"/>
+      <c r="GJ1" s="47"/>
+      <c r="GK1" s="47"/>
+      <c r="GL1" s="47"/>
+      <c r="GM1" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="GN1" s="49"/>
-      <c r="GO1" s="49"/>
-      <c r="GP1" s="49"/>
-      <c r="GQ1" s="49"/>
-      <c r="GR1" s="49"/>
-      <c r="GS1" s="49"/>
-      <c r="GT1" s="49"/>
-      <c r="GU1" s="49"/>
-      <c r="GV1" s="49"/>
-      <c r="GW1" s="49"/>
-      <c r="GX1" s="49"/>
-      <c r="GY1" s="49"/>
-      <c r="GZ1" s="49"/>
-      <c r="HA1" s="49"/>
-      <c r="HB1" s="49"/>
-      <c r="HC1" s="49"/>
-      <c r="HD1" s="49"/>
-      <c r="HE1" s="49"/>
-      <c r="HF1" s="49"/>
-      <c r="HG1" s="49"/>
-      <c r="HH1" s="49"/>
-      <c r="HI1" s="49"/>
-      <c r="HJ1" s="49"/>
-      <c r="HK1" s="49"/>
-      <c r="HL1" s="49"/>
-      <c r="HM1" s="49"/>
-      <c r="HN1" s="49"/>
-      <c r="HO1" s="49"/>
-      <c r="HP1" s="49"/>
-      <c r="HQ1" s="49"/>
-      <c r="HR1" s="49"/>
-      <c r="HS1" s="49"/>
-      <c r="HT1" s="49"/>
-      <c r="HU1" s="49"/>
-      <c r="HV1" s="49"/>
+      <c r="GN1" s="53"/>
+      <c r="GO1" s="53"/>
+      <c r="GP1" s="53"/>
+      <c r="GQ1" s="53"/>
+      <c r="GR1" s="53"/>
+      <c r="GS1" s="53"/>
+      <c r="GT1" s="53"/>
+      <c r="GU1" s="53"/>
+      <c r="GV1" s="53"/>
+      <c r="GW1" s="53"/>
+      <c r="GX1" s="53"/>
+      <c r="GY1" s="53"/>
+      <c r="GZ1" s="53"/>
+      <c r="HA1" s="53"/>
+      <c r="HB1" s="53"/>
+      <c r="HC1" s="53"/>
+      <c r="HD1" s="53"/>
+      <c r="HE1" s="53"/>
+      <c r="HF1" s="53"/>
+      <c r="HG1" s="53"/>
+      <c r="HH1" s="53"/>
+      <c r="HI1" s="53"/>
+      <c r="HJ1" s="53"/>
+      <c r="HK1" s="53"/>
+      <c r="HL1" s="53"/>
+      <c r="HM1" s="53"/>
+      <c r="HN1" s="53"/>
+      <c r="HO1" s="53"/>
+      <c r="HP1" s="53"/>
+      <c r="HQ1" s="53"/>
+      <c r="HR1" s="53"/>
+      <c r="HS1" s="53"/>
+      <c r="HT1" s="53"/>
+      <c r="HU1" s="53"/>
+      <c r="HV1" s="53"/>
     </row>
-    <row r="2" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2911,10 +2910,10 @@
         <v>323</v>
       </c>
       <c r="BI3" s="18">
-        <v>318</v>
+        <v>509.91832885082579</v>
       </c>
       <c r="BJ3" s="18">
-        <v>312</v>
+        <v>551.57183981554022</v>
       </c>
       <c r="BL3" s="18"/>
       <c r="BM3" s="18"/>
@@ -3227,7 +3226,7 @@
       <c r="HU3" s="18"/>
       <c r="HV3" s="18"/>
     </row>
-    <row r="4" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3400,10 +3399,10 @@
         <v>246</v>
       </c>
       <c r="BI4" s="18">
-        <v>233</v>
+        <v>286.59081162762391</v>
       </c>
       <c r="BJ4" s="18">
-        <v>220</v>
+        <v>283.72490351134769</v>
       </c>
       <c r="BL4" s="18"/>
       <c r="BM4" s="18"/>
@@ -3812,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3985,10 +3984,10 @@
         <v>5672</v>
       </c>
       <c r="BI5" s="18">
-        <v>5522</v>
+        <v>5538.4378709066496</v>
       </c>
       <c r="BJ5" s="18">
-        <v>5372.0000000000009</v>
+        <v>5348.3492814494402</v>
       </c>
       <c r="BK5" s="18">
         <v>320</v>
@@ -4495,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4505,7 +4504,7 @@
       <c r="D6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="39" t="s">
         <v>135</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -4668,10 +4667,10 @@
         <v>4023.9999999999995</v>
       </c>
       <c r="BI6" s="18">
-        <v>3989</v>
+        <v>4015.1118166737156</v>
       </c>
       <c r="BJ6" s="18">
-        <v>3954.0000000000005</v>
+        <v>3918.7491330735465</v>
       </c>
       <c r="BL6" s="18"/>
       <c r="BM6" s="18"/>
@@ -4984,7 +4983,7 @@
       <c r="HU6" s="18"/>
       <c r="HV6" s="18"/>
     </row>
-    <row r="7" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4994,7 +4993,7 @@
       <c r="D7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
@@ -5155,10 +5154,10 @@
         <v>2003.9999999999998</v>
       </c>
       <c r="BI7" s="18">
-        <v>1949</v>
+        <v>2130.8294953191821</v>
       </c>
       <c r="BJ7" s="18">
-        <v>1895</v>
+        <v>2056.2504629830109</v>
       </c>
       <c r="BL7" s="18"/>
       <c r="BM7" s="18"/>
@@ -5471,7 +5470,7 @@
       <c r="HU7" s="18"/>
       <c r="HV7" s="18"/>
     </row>
-    <row r="8" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5481,7 +5480,7 @@
       <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="37" t="s">
         <v>144</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -5644,10 +5643,10 @@
         <v>255</v>
       </c>
       <c r="BI8" s="18">
-        <v>252</v>
+        <v>282.38000873465427</v>
       </c>
       <c r="BJ8" s="18">
-        <v>248</v>
+        <v>278.14998034450264</v>
       </c>
       <c r="BL8" s="18"/>
       <c r="BM8" s="18"/>
@@ -5960,7 +5959,7 @@
       <c r="HU8" s="18"/>
       <c r="HV8" s="18"/>
     </row>
-    <row r="9" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5970,7 +5969,7 @@
       <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
@@ -6131,10 +6130,10 @@
         <v>1592</v>
       </c>
       <c r="BI9" s="18">
-        <v>1568</v>
+        <v>1699.5716588879998</v>
       </c>
       <c r="BJ9" s="18">
-        <v>1543.9999999999998</v>
+        <v>1675.7776556635677</v>
       </c>
       <c r="BL9" s="18"/>
       <c r="BM9" s="18"/>
@@ -6447,7 +6446,7 @@
       <c r="HU9" s="18"/>
       <c r="HV9" s="18"/>
     </row>
-    <row r="10" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6457,7 +6456,7 @@
       <c r="D10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="5" t="s">
         <v>5</v>
       </c>
@@ -6514,17 +6513,42 @@
       <c r="AV10" s="18"/>
       <c r="AW10" s="18"/>
       <c r="AX10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="18"/>
-      <c r="BF10" s="18"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="18"/>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="18"/>
+      <c r="AY10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="18">
+        <v>0</v>
+      </c>
       <c r="BL10" s="18"/>
       <c r="BM10" s="18"/>
       <c r="BN10" s="18"/>
@@ -6620,7 +6644,7 @@
       <c r="HU10" s="18"/>
       <c r="HV10" s="18"/>
     </row>
-    <row r="11" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6630,7 +6654,7 @@
       <c r="D11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="5" t="s">
         <v>5</v>
       </c>
@@ -6791,10 +6815,10 @@
         <v>319</v>
       </c>
       <c r="BI11" s="18">
-        <v>315</v>
+        <v>269.49939824999996</v>
       </c>
       <c r="BJ11" s="18">
-        <v>309.99999999999994</v>
+        <v>265.45690727624998</v>
       </c>
       <c r="BL11" s="18"/>
       <c r="BM11" s="18"/>
@@ -7107,7 +7131,7 @@
       <c r="HU11" s="18"/>
       <c r="HV11" s="18"/>
     </row>
-    <row r="12" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7117,7 +7141,7 @@
       <c r="D12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="5" t="s">
         <v>5</v>
       </c>
@@ -7278,10 +7302,10 @@
         <v>49</v>
       </c>
       <c r="BI12" s="18">
-        <v>48</v>
+        <v>40.138208249999998</v>
       </c>
       <c r="BJ12" s="18">
-        <v>48</v>
+        <v>39.536135126249995</v>
       </c>
       <c r="BL12" s="18"/>
       <c r="BM12" s="18"/>
@@ -7594,21 +7618,21 @@
       <c r="HU12" s="18"/>
       <c r="HV12" s="18"/>
     </row>
-    <row r="13" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="43" t="str">
+      <c r="D13" s="34" t="str">
         <f>+C13</f>
         <v>CAPACHOS</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="34" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -7768,10 +7792,10 @@
         <v>1058</v>
       </c>
       <c r="BI13" s="18">
-        <v>1012</v>
+        <v>1150</v>
       </c>
       <c r="BJ13" s="18">
-        <v>968</v>
+        <v>1100</v>
       </c>
       <c r="BK13" s="18">
         <v>300</v>
@@ -8278,16 +8302,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="44"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="6" t="s">
         <v>3</v>
       </c>
@@ -8341,17 +8365,42 @@
       <c r="AV14" s="18"/>
       <c r="AW14" s="18"/>
       <c r="AX14" s="18"/>
-      <c r="AZ14" s="18"/>
-      <c r="BA14" s="18"/>
-      <c r="BB14" s="18"/>
-      <c r="BC14" s="18"/>
-      <c r="BD14" s="18"/>
-      <c r="BE14" s="18"/>
-      <c r="BF14" s="18"/>
-      <c r="BG14" s="18"/>
-      <c r="BH14" s="18"/>
-      <c r="BI14" s="18"/>
-      <c r="BJ14" s="18"/>
+      <c r="AY14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="18">
+        <v>0</v>
+      </c>
       <c r="BL14" s="18"/>
       <c r="BM14" s="18"/>
       <c r="BN14" s="18"/>
@@ -8447,7 +8496,7 @@
       <c r="HU14" s="18"/>
       <c r="HV14" s="18"/>
     </row>
-    <row r="15" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8457,7 +8506,7 @@
       <c r="D15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="37" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -8620,10 +8669,10 @@
         <v>414</v>
       </c>
       <c r="BI15" s="18">
-        <v>410</v>
+        <v>437.91092108114282</v>
       </c>
       <c r="BJ15" s="18">
-        <v>407</v>
+        <v>434.45781287743466</v>
       </c>
       <c r="BK15" s="18">
         <v>473</v>
@@ -9130,7 +9179,7 @@
         <v>621.40350877192975</v>
       </c>
     </row>
-    <row r="16" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9140,7 +9189,7 @@
       <c r="D16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="5" t="s">
         <v>5</v>
       </c>
@@ -9301,10 +9350,10 @@
         <v>1082</v>
       </c>
       <c r="BI16" s="18">
-        <v>1074</v>
+        <v>1048.7063963038054</v>
       </c>
       <c r="BJ16" s="18">
-        <v>1067</v>
+        <v>1041.8382632481141</v>
       </c>
       <c r="BK16" s="18">
         <v>87.999999999999986</v>
@@ -9811,7 +9860,7 @@
         <v>139.69432153712839</v>
       </c>
     </row>
-    <row r="17" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9821,7 +9870,7 @@
       <c r="D17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="5" t="s">
         <v>5</v>
       </c>
@@ -9982,10 +10031,10 @@
         <v>16.999999999999996</v>
       </c>
       <c r="BI17" s="18">
-        <v>17</v>
+        <v>31.421977280050655</v>
       </c>
       <c r="BJ17" s="18">
-        <v>17</v>
+        <v>31.039406091023281</v>
       </c>
       <c r="BL17" s="18"/>
       <c r="BM17" s="18"/>
@@ -10467,7 +10516,7 @@
         <v>1.4035087719298245</v>
       </c>
     </row>
-    <row r="18" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -10477,7 +10526,7 @@
       <c r="D18" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
@@ -10599,17 +10648,42 @@
       <c r="AX18" s="18">
         <v>0</v>
       </c>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="18"/>
-      <c r="BB18" s="18"/>
-      <c r="BC18" s="18"/>
-      <c r="BD18" s="18"/>
-      <c r="BE18" s="18"/>
-      <c r="BF18" s="18"/>
-      <c r="BG18" s="18"/>
-      <c r="BH18" s="18"/>
-      <c r="BI18" s="18"/>
-      <c r="BJ18" s="18"/>
+      <c r="AY18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="18">
+        <v>0</v>
+      </c>
       <c r="BL18" s="18"/>
       <c r="BM18" s="18"/>
       <c r="BN18" s="18"/>
@@ -10958,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -10968,7 +11042,7 @@
       <c r="D19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="5" t="s">
         <v>5</v>
       </c>
@@ -11129,10 +11203,10 @@
         <v>152</v>
       </c>
       <c r="BI19" s="18">
-        <v>151</v>
+        <v>167.62984771177781</v>
       </c>
       <c r="BJ19" s="18">
-        <v>149.99999999999997</v>
+        <v>166.31356092632237</v>
       </c>
       <c r="BK19" s="18">
         <v>31.000000000000004</v>
@@ -11639,7 +11713,7 @@
         <v>38.245614035087719</v>
       </c>
     </row>
-    <row r="20" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11781,17 +11855,42 @@
       <c r="AX20" s="18">
         <v>0</v>
       </c>
-      <c r="AZ20" s="18"/>
-      <c r="BA20" s="18"/>
-      <c r="BB20" s="18"/>
-      <c r="BC20" s="18"/>
-      <c r="BD20" s="18"/>
-      <c r="BE20" s="18"/>
-      <c r="BF20" s="18"/>
-      <c r="BG20" s="18"/>
-      <c r="BH20" s="18"/>
-      <c r="BI20" s="18"/>
-      <c r="BJ20" s="18"/>
+      <c r="AY20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="18">
+        <v>0</v>
+      </c>
       <c r="BL20" s="18"/>
       <c r="BM20" s="18"/>
       <c r="BN20" s="18"/>
@@ -11995,7 +12094,7 @@
       <c r="HU20" s="18"/>
       <c r="HV20" s="18"/>
     </row>
-    <row r="21" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -12580,7 +12679,7 @@
         <v>65.78947368421052</v>
       </c>
     </row>
-    <row r="22" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -12723,17 +12822,42 @@
       <c r="AX22" s="18">
         <v>0</v>
       </c>
-      <c r="AZ22" s="18"/>
-      <c r="BA22" s="18"/>
-      <c r="BB22" s="18"/>
-      <c r="BC22" s="18"/>
-      <c r="BD22" s="18"/>
-      <c r="BE22" s="18"/>
-      <c r="BF22" s="18"/>
-      <c r="BG22" s="18"/>
-      <c r="BH22" s="18"/>
-      <c r="BI22" s="18"/>
-      <c r="BJ22" s="18"/>
+      <c r="AY22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="18">
+        <v>0</v>
+      </c>
       <c r="BL22" s="18"/>
       <c r="BM22" s="18"/>
       <c r="BN22" s="18"/>
@@ -12829,7 +12953,7 @@
       <c r="HU22" s="18"/>
       <c r="HV22" s="18"/>
     </row>
-    <row r="23" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -12963,17 +13087,42 @@
       <c r="AX23" s="18">
         <v>0</v>
       </c>
-      <c r="AZ23" s="18"/>
-      <c r="BA23" s="18"/>
-      <c r="BB23" s="18"/>
-      <c r="BC23" s="18"/>
-      <c r="BD23" s="18"/>
-      <c r="BE23" s="18"/>
-      <c r="BF23" s="18"/>
-      <c r="BG23" s="18"/>
-      <c r="BH23" s="18"/>
-      <c r="BI23" s="18"/>
-      <c r="BJ23" s="18"/>
+      <c r="AY23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="18">
+        <v>0</v>
+      </c>
       <c r="BL23" s="18"/>
       <c r="BM23" s="18"/>
       <c r="BN23" s="18"/>
@@ -13177,7 +13326,7 @@
       <c r="HU23" s="18"/>
       <c r="HV23" s="18"/>
     </row>
-    <row r="24" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -13187,7 +13336,7 @@
       <c r="D24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="39" t="s">
         <v>139</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -13350,10 +13499,10 @@
         <v>70.000000000000014</v>
       </c>
       <c r="BI24" s="18">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="BJ24" s="18">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="BL24" s="18"/>
       <c r="BM24" s="18"/>
@@ -13666,7 +13815,7 @@
       <c r="HU24" s="18"/>
       <c r="HV24" s="18"/>
     </row>
-    <row r="25" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -13676,7 +13825,7 @@
       <c r="D25" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="5" t="s">
         <v>5</v>
       </c>
@@ -13837,10 +13986,10 @@
         <v>38</v>
       </c>
       <c r="BI25" s="18">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="BJ25" s="18">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="BL25" s="18"/>
       <c r="BM25" s="18"/>
@@ -14153,7 +14302,7 @@
       <c r="HU25" s="18"/>
       <c r="HV25" s="18"/>
     </row>
-    <row r="26" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -14163,7 +14312,7 @@
       <c r="D26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="39" t="s">
         <v>136</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -14326,10 +14475,10 @@
         <v>365.00000000000006</v>
       </c>
       <c r="BI26" s="18">
-        <v>357.00000000000006</v>
+        <v>391.58897890825057</v>
       </c>
       <c r="BJ26" s="18">
-        <v>354</v>
+        <v>382.98978048571274</v>
       </c>
       <c r="BL26" s="18"/>
       <c r="BM26" s="18"/>
@@ -14642,7 +14791,7 @@
       <c r="HU26" s="18"/>
       <c r="HV26" s="18"/>
     </row>
-    <row r="27" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -14652,7 +14801,7 @@
       <c r="D27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="34"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="5" t="s">
         <v>5</v>
       </c>
@@ -14813,10 +14962,10 @@
         <v>276</v>
       </c>
       <c r="BI27" s="18">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="BJ27" s="18">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="BL27" s="18"/>
       <c r="BM27" s="18"/>
@@ -15129,7 +15278,7 @@
       <c r="HU27" s="18"/>
       <c r="HV27" s="18"/>
     </row>
-    <row r="28" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -15139,7 +15288,7 @@
       <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="37" t="s">
         <v>146</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -15302,10 +15451,10 @@
         <v>9</v>
       </c>
       <c r="BI28" s="18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BJ28" s="18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BL28" s="18"/>
       <c r="BM28" s="18"/>
@@ -15714,7 +15863,7 @@
         <v>24.210526315789473</v>
       </c>
     </row>
-    <row r="29" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -15724,7 +15873,7 @@
       <c r="D29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
@@ -15773,17 +15922,42 @@
       <c r="AV29" s="18"/>
       <c r="AW29" s="18"/>
       <c r="AX29" s="18"/>
-      <c r="AZ29" s="18"/>
-      <c r="BA29" s="18"/>
-      <c r="BB29" s="18"/>
-      <c r="BC29" s="18"/>
-      <c r="BD29" s="18"/>
-      <c r="BE29" s="18"/>
-      <c r="BF29" s="18"/>
-      <c r="BG29" s="18"/>
-      <c r="BH29" s="18"/>
-      <c r="BI29" s="18"/>
-      <c r="BJ29" s="18"/>
+      <c r="AY29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="18">
+        <v>0</v>
+      </c>
       <c r="BL29" s="18"/>
       <c r="BM29" s="18"/>
       <c r="BN29" s="18"/>
@@ -15879,7 +16053,7 @@
       <c r="HU29" s="18"/>
       <c r="HV29" s="18"/>
     </row>
-    <row r="30" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -16021,17 +16195,42 @@
       <c r="AX30" s="18">
         <v>0</v>
       </c>
-      <c r="AZ30" s="18"/>
-      <c r="BA30" s="18"/>
-      <c r="BB30" s="18"/>
-      <c r="BC30" s="18"/>
-      <c r="BD30" s="18"/>
-      <c r="BE30" s="18"/>
-      <c r="BF30" s="18"/>
-      <c r="BG30" s="18"/>
-      <c r="BH30" s="18"/>
-      <c r="BI30" s="18"/>
-      <c r="BJ30" s="18"/>
+      <c r="AY30" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="18">
+        <v>0</v>
+      </c>
       <c r="BL30" s="18"/>
       <c r="BM30" s="18"/>
       <c r="BN30" s="18"/>
@@ -16235,7 +16434,7 @@
       <c r="HU30" s="18"/>
       <c r="HV30" s="18"/>
     </row>
-    <row r="31" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -16408,10 +16607,10 @@
         <v>507</v>
       </c>
       <c r="BI31" s="18">
-        <v>500.99999999999994</v>
+        <v>525</v>
       </c>
       <c r="BJ31" s="18">
-        <v>495</v>
+        <v>504.54695632780351</v>
       </c>
       <c r="BL31" s="18"/>
       <c r="BM31" s="18"/>
@@ -16724,7 +16923,7 @@
       <c r="HU31" s="18"/>
       <c r="HV31" s="18"/>
     </row>
-    <row r="32" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -16858,17 +17057,42 @@
       <c r="AX32" s="18">
         <v>0</v>
       </c>
-      <c r="AZ32" s="18"/>
-      <c r="BA32" s="18"/>
-      <c r="BB32" s="18"/>
-      <c r="BC32" s="18"/>
-      <c r="BD32" s="18"/>
-      <c r="BE32" s="18"/>
-      <c r="BF32" s="18"/>
-      <c r="BG32" s="18"/>
-      <c r="BH32" s="18"/>
-      <c r="BI32" s="18"/>
-      <c r="BJ32" s="18"/>
+      <c r="AY32" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG32" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI32" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="18">
+        <v>0</v>
+      </c>
       <c r="BL32" s="18"/>
       <c r="BM32" s="18"/>
       <c r="BN32" s="18"/>
@@ -17072,7 +17296,7 @@
       <c r="HU32" s="18"/>
       <c r="HV32" s="18"/>
     </row>
-    <row r="33" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -17245,10 +17469,10 @@
         <v>87.999999999999986</v>
       </c>
       <c r="BI33" s="18">
-        <v>87.999999999999986</v>
+        <v>83.925358291330866</v>
       </c>
       <c r="BJ33" s="18">
-        <v>87</v>
+        <v>82.1074397461052</v>
       </c>
       <c r="BL33" s="18"/>
       <c r="BM33" s="18"/>
@@ -17561,7 +17785,7 @@
       <c r="HU33" s="18"/>
       <c r="HV33" s="18"/>
     </row>
-    <row r="34" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -17704,17 +17928,42 @@
       <c r="AX34" s="18">
         <v>0</v>
       </c>
-      <c r="AZ34" s="18"/>
-      <c r="BA34" s="18"/>
-      <c r="BB34" s="18"/>
-      <c r="BC34" s="18"/>
-      <c r="BD34" s="18"/>
-      <c r="BE34" s="18"/>
-      <c r="BF34" s="18"/>
-      <c r="BG34" s="18"/>
-      <c r="BH34" s="18"/>
-      <c r="BI34" s="18"/>
-      <c r="BJ34" s="18"/>
+      <c r="AY34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="18">
+        <v>0</v>
+      </c>
       <c r="BL34" s="18"/>
       <c r="BM34" s="18"/>
       <c r="BN34" s="18"/>
@@ -17954,7 +18203,7 @@
       <c r="HU34" s="18"/>
       <c r="HV34" s="18"/>
     </row>
-    <row r="35" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -17964,7 +18213,7 @@
       <c r="D35" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="41" t="s">
         <v>137</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -18127,10 +18376,10 @@
         <v>2090</v>
       </c>
       <c r="BI35" s="18">
-        <v>2046</v>
+        <v>1994</v>
       </c>
       <c r="BJ35" s="18">
-        <v>2003</v>
+        <v>1944</v>
       </c>
       <c r="BL35" s="18"/>
       <c r="BM35" s="18"/>
@@ -18443,7 +18692,7 @@
       <c r="HU35" s="18"/>
       <c r="HV35" s="18"/>
     </row>
-    <row r="36" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -18453,7 +18702,7 @@
       <c r="D36" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="10" t="s">
         <v>5</v>
       </c>
@@ -18614,10 +18863,10 @@
         <v>486</v>
       </c>
       <c r="BI36" s="18">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="BJ36" s="18">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="BL36" s="18"/>
       <c r="BM36" s="18"/>
@@ -18930,7 +19179,7 @@
       <c r="HU36" s="18"/>
       <c r="HV36" s="18"/>
     </row>
-    <row r="37" spans="1:230" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:230" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -18941,7 +19190,7 @@
         <f>+D36</f>
         <v>CARACARA</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="41"/>
       <c r="F37" s="10" t="s">
         <v>5</v>
       </c>
@@ -19102,10 +19351,10 @@
         <v>694</v>
       </c>
       <c r="BI37" s="18">
-        <v>673</v>
+        <v>612</v>
       </c>
       <c r="BJ37" s="18">
-        <v>653</v>
+        <v>583</v>
       </c>
       <c r="BL37" s="18"/>
       <c r="BM37" s="18"/>
@@ -19418,7 +19667,7 @@
       <c r="HU37" s="18"/>
       <c r="HV37" s="18"/>
     </row>
-    <row r="38" spans="1:230" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:230" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -19429,7 +19678,7 @@
         <f>+D37</f>
         <v>CARACARA</v>
       </c>
-      <c r="E38" s="51"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="10" t="s">
         <v>5</v>
       </c>
@@ -19590,10 +19839,10 @@
         <v>561.00000000000011</v>
       </c>
       <c r="BI38" s="18">
-        <v>544</v>
+        <v>770</v>
       </c>
       <c r="BJ38" s="18">
-        <v>528</v>
+        <v>758</v>
       </c>
       <c r="BL38" s="18"/>
       <c r="BM38" s="18"/>
@@ -19906,7 +20155,7 @@
       <c r="HU38" s="18"/>
       <c r="HV38" s="18"/>
     </row>
-    <row r="39" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -19917,7 +20166,7 @@
         <f>+D38</f>
         <v>CARACARA</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="41"/>
       <c r="F39" s="10" t="s">
         <v>5</v>
       </c>
@@ -20078,10 +20327,10 @@
         <v>1128</v>
       </c>
       <c r="BI39" s="18">
-        <v>1095</v>
+        <v>1317</v>
       </c>
       <c r="BJ39" s="18">
-        <v>1062</v>
+        <v>1306</v>
       </c>
       <c r="BL39" s="18"/>
       <c r="BM39" s="18"/>
@@ -20394,7 +20643,7 @@
       <c r="HU39" s="18"/>
       <c r="HV39" s="18"/>
     </row>
-    <row r="40" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -20404,7 +20653,7 @@
       <c r="D40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="10" t="s">
         <v>5</v>
       </c>
@@ -20565,10 +20814,10 @@
         <v>1203</v>
       </c>
       <c r="BI40" s="18">
-        <v>1175</v>
+        <v>1273</v>
       </c>
       <c r="BJ40" s="18">
-        <v>1147</v>
+        <v>1223</v>
       </c>
       <c r="BL40" s="18"/>
       <c r="BM40" s="18"/>
@@ -20881,7 +21130,7 @@
       <c r="HU40" s="18"/>
       <c r="HV40" s="18"/>
     </row>
-    <row r="41" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -20891,7 +21140,7 @@
       <c r="D41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="51"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="10" t="s">
         <v>5</v>
       </c>
@@ -21055,7 +21304,7 @@
         <v>514</v>
       </c>
       <c r="BJ41" s="18">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="BL41" s="18"/>
       <c r="BM41" s="18"/>
@@ -21368,7 +21617,7 @@
       <c r="HU41" s="18"/>
       <c r="HV41" s="18"/>
     </row>
-    <row r="42" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -21378,7 +21627,7 @@
       <c r="D42" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="51"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="10" t="s">
         <v>5</v>
       </c>
@@ -21539,10 +21788,10 @@
         <v>631</v>
       </c>
       <c r="BI42" s="18">
-        <v>612</v>
+        <v>494</v>
       </c>
       <c r="BJ42" s="18">
-        <v>593</v>
+        <v>673</v>
       </c>
       <c r="BL42" s="18"/>
       <c r="BM42" s="18"/>
@@ -21855,7 +22104,7 @@
       <c r="HU42" s="18"/>
       <c r="HV42" s="18"/>
     </row>
-    <row r="43" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -21865,7 +22114,7 @@
       <c r="D43" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="51"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="10" t="s">
         <v>5</v>
       </c>
@@ -22026,10 +22275,10 @@
         <v>102</v>
       </c>
       <c r="BI43" s="18">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="BJ43" s="18">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BL43" s="18"/>
       <c r="BM43" s="18"/>
@@ -22342,7 +22591,7 @@
       <c r="HU43" s="18"/>
       <c r="HV43" s="18"/>
     </row>
-    <row r="44" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -22352,7 +22601,7 @@
       <c r="D44" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="51"/>
+      <c r="E44" s="41"/>
       <c r="F44" s="10" t="s">
         <v>5</v>
       </c>
@@ -22829,7 +23078,7 @@
       <c r="HU44" s="18"/>
       <c r="HV44" s="18"/>
     </row>
-    <row r="45" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -22839,7 +23088,7 @@
       <c r="D45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="41"/>
       <c r="F45" s="10" t="s">
         <v>5</v>
       </c>
@@ -23000,10 +23249,10 @@
         <v>15</v>
       </c>
       <c r="BI45" s="18">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="BJ45" s="18">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="BL45" s="18"/>
       <c r="BM45" s="18"/>
@@ -23316,11 +23565,11 @@
       <c r="HU45" s="18"/>
       <c r="HV45" s="18"/>
     </row>
-    <row r="46" spans="1:230" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:230" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="36" t="s">
         <v>131</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -23329,7 +23578,7 @@
       <c r="D46" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="41" t="s">
         <v>135</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -23492,10 +23741,10 @@
         <v>339</v>
       </c>
       <c r="BI46" s="18">
-        <v>331</v>
+        <v>291.22034209128418</v>
       </c>
       <c r="BJ46" s="18">
-        <v>323</v>
+        <v>283.0661725127282</v>
       </c>
       <c r="BL46" s="18"/>
       <c r="BM46" s="18"/>
@@ -23808,18 +24057,18 @@
       <c r="HU46" s="18"/>
       <c r="HV46" s="18"/>
     </row>
-    <row r="47" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="56"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="51"/>
+      <c r="E47" s="41"/>
       <c r="F47" s="10" t="s">
         <v>5</v>
       </c>
@@ -23980,10 +24229,10 @@
         <v>549</v>
       </c>
       <c r="BI47" s="18">
-        <v>540</v>
+        <v>118.3850298065142</v>
       </c>
       <c r="BJ47" s="18">
-        <v>531</v>
+        <v>115.18863400173831</v>
       </c>
       <c r="BL47" s="18"/>
       <c r="BM47" s="18"/>
@@ -24296,18 +24545,18 @@
       <c r="HU47" s="18"/>
       <c r="HV47" s="18"/>
     </row>
-    <row r="48" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="41"/>
       <c r="F48" s="10" t="s">
         <v>5</v>
       </c>
@@ -24468,10 +24717,10 @@
         <v>220</v>
       </c>
       <c r="BI48" s="18">
-        <v>215</v>
+        <v>229.23721888421056</v>
       </c>
       <c r="BJ48" s="18">
-        <v>211</v>
+        <v>224.65247450652635</v>
       </c>
       <c r="BL48" s="18"/>
       <c r="BM48" s="18"/>
@@ -24784,18 +25033,18 @@
       <c r="HU48" s="18"/>
       <c r="HV48" s="18"/>
     </row>
-    <row r="49" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="56"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="10" t="s">
         <v>5</v>
       </c>
@@ -24956,10 +25205,10 @@
         <v>123</v>
       </c>
       <c r="BI49" s="18">
-        <v>120.00000000000001</v>
+        <v>131.07650393000841</v>
       </c>
       <c r="BJ49" s="18">
-        <v>117</v>
+        <v>128.19282084354822</v>
       </c>
       <c r="BL49" s="18"/>
       <c r="BM49" s="18"/>
@@ -25344,18 +25593,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="56"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="41"/>
       <c r="F50" s="10" t="s">
         <v>5</v>
       </c>
@@ -25516,10 +25765,10 @@
         <v>152</v>
       </c>
       <c r="BI50" s="18">
-        <v>149</v>
+        <v>228.6310277159989</v>
       </c>
       <c r="BJ50" s="18">
-        <v>145</v>
+        <v>223.37251407853091</v>
       </c>
       <c r="BL50" s="18"/>
       <c r="BM50" s="18"/>
@@ -25832,18 +26081,18 @@
       <c r="HU50" s="18"/>
       <c r="HV50" s="18"/>
     </row>
-    <row r="51" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="56"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="51"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="10" t="s">
         <v>5</v>
       </c>
@@ -26004,10 +26253,10 @@
         <v>173</v>
       </c>
       <c r="BI51" s="18">
-        <v>169</v>
+        <v>196.82777176640158</v>
       </c>
       <c r="BJ51" s="18">
-        <v>166</v>
+        <v>192.30073301577434</v>
       </c>
       <c r="BL51" s="18"/>
       <c r="BM51" s="18"/>
@@ -26320,18 +26569,18 @@
       <c r="HU51" s="18"/>
       <c r="HV51" s="18"/>
     </row>
-    <row r="52" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="56"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="51"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="10" t="s">
         <v>5</v>
       </c>
@@ -26492,10 +26741,10 @@
         <v>90</v>
       </c>
       <c r="BI52" s="18">
-        <v>88</v>
+        <v>180.08195645052629</v>
       </c>
       <c r="BJ52" s="18">
-        <v>87</v>
+        <v>177.38072710376841</v>
       </c>
       <c r="BL52" s="18"/>
       <c r="BM52" s="18"/>
@@ -26808,18 +27057,18 @@
       <c r="HU52" s="18"/>
       <c r="HV52" s="18"/>
     </row>
-    <row r="53" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="56"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="51"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="10" t="s">
         <v>5</v>
       </c>
@@ -26980,10 +27229,10 @@
         <v>0</v>
       </c>
       <c r="BI53" s="18">
-        <v>0</v>
+        <v>108.92</v>
       </c>
       <c r="BJ53" s="18">
-        <v>0</v>
+        <v>106.95944</v>
       </c>
       <c r="BL53" s="18"/>
       <c r="BM53" s="18"/>
@@ -27296,18 +27545,18 @@
       <c r="HU53" s="18"/>
       <c r="HV53" s="18"/>
     </row>
-    <row r="54" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="56"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="10" t="s">
         <v>5</v>
       </c>
@@ -27468,10 +27717,10 @@
         <v>79</v>
       </c>
       <c r="BI54" s="18">
-        <v>78</v>
+        <v>363.97679395626949</v>
       </c>
       <c r="BJ54" s="18">
-        <v>77</v>
+        <v>505.42521166505662</v>
       </c>
       <c r="BL54" s="18"/>
       <c r="BM54" s="18"/>
@@ -27784,18 +28033,18 @@
       <c r="HU54" s="18"/>
       <c r="HV54" s="18"/>
     </row>
-    <row r="55" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="56"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="51"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="10" t="s">
         <v>5</v>
       </c>
@@ -27852,17 +28101,42 @@
       <c r="AV55" s="18"/>
       <c r="AW55" s="18"/>
       <c r="AX55" s="18"/>
-      <c r="AZ55" s="18"/>
-      <c r="BA55" s="18"/>
-      <c r="BB55" s="18"/>
-      <c r="BC55" s="18"/>
-      <c r="BD55" s="18"/>
-      <c r="BE55" s="18"/>
-      <c r="BF55" s="18"/>
-      <c r="BG55" s="18"/>
-      <c r="BH55" s="18"/>
-      <c r="BI55" s="18"/>
-      <c r="BJ55" s="18"/>
+      <c r="AY55" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ55" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA55" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB55" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC55" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD55" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE55" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF55" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG55" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH55" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI55" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ55" s="18">
+        <v>0</v>
+      </c>
       <c r="BL55" s="18"/>
       <c r="BM55" s="18"/>
       <c r="BN55" s="18"/>
@@ -28138,18 +28412,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="56"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E56" s="51"/>
+      <c r="E56" s="41"/>
       <c r="F56" s="10" t="s">
         <v>5</v>
       </c>
@@ -28310,10 +28584,10 @@
         <v>299</v>
       </c>
       <c r="BI56" s="18">
-        <v>293</v>
+        <v>302.0651144289011</v>
       </c>
       <c r="BJ56" s="18">
-        <v>288</v>
+        <v>294.81555168260746</v>
       </c>
       <c r="BL56" s="18"/>
       <c r="BM56" s="18"/>
@@ -28626,18 +28900,18 @@
       <c r="HU56" s="18"/>
       <c r="HV56" s="18"/>
     </row>
-    <row r="57" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="56"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="51"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="10" t="s">
         <v>5</v>
       </c>
@@ -28798,10 +29072,10 @@
         <v>26.000000000000004</v>
       </c>
       <c r="BI57" s="18">
-        <v>26</v>
+        <v>29.4008566231579</v>
       </c>
       <c r="BJ57" s="18">
-        <v>25</v>
+        <v>28.812839490694742</v>
       </c>
       <c r="BL57" s="18"/>
       <c r="BM57" s="18"/>
@@ -29114,18 +29388,18 @@
       <c r="HU57" s="18"/>
       <c r="HV57" s="18"/>
     </row>
-    <row r="58" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="56"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="51"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="10" t="s">
         <v>5</v>
       </c>
@@ -29286,10 +29560,10 @@
         <v>594</v>
       </c>
       <c r="BI58" s="18">
-        <v>577</v>
+        <v>120.73347660221049</v>
       </c>
       <c r="BJ58" s="18">
-        <v>561</v>
+        <v>118.07734011696185</v>
       </c>
       <c r="BL58" s="18"/>
       <c r="BM58" s="18"/>
@@ -29602,18 +29876,18 @@
       <c r="HU58" s="18"/>
       <c r="HV58" s="18"/>
     </row>
-    <row r="59" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="51"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="10" t="s">
         <v>5</v>
       </c>
@@ -29774,10 +30048,10 @@
         <v>208.00000000000003</v>
       </c>
       <c r="BI59" s="18">
-        <v>204.00000000000003</v>
+        <v>241.32063807157888</v>
       </c>
       <c r="BJ59" s="18">
-        <v>200</v>
+        <v>236.4942253101473</v>
       </c>
       <c r="BL59" s="18"/>
       <c r="BM59" s="18"/>
@@ -30090,18 +30364,18 @@
       <c r="HU59" s="18"/>
       <c r="HV59" s="18"/>
     </row>
-    <row r="60" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="56"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E60" s="51"/>
+      <c r="E60" s="41"/>
       <c r="F60" s="10" t="s">
         <v>5</v>
       </c>
@@ -30262,10 +30536,10 @@
         <v>106</v>
       </c>
       <c r="BI60" s="18">
-        <v>102.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="18">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="BL60" s="18"/>
       <c r="BM60" s="18"/>
@@ -30578,18 +30852,18 @@
       <c r="HU60" s="18"/>
       <c r="HV60" s="18"/>
     </row>
-    <row r="61" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="56"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="51"/>
+      <c r="E61" s="41"/>
       <c r="F61" s="10" t="s">
         <v>5</v>
       </c>
@@ -30750,10 +31024,10 @@
         <v>146</v>
       </c>
       <c r="BI61" s="18">
-        <v>143</v>
+        <v>139.22995190369684</v>
       </c>
       <c r="BJ61" s="18">
-        <v>140</v>
+        <v>135.33151325039333</v>
       </c>
       <c r="BL61" s="18"/>
       <c r="BM61" s="18"/>
@@ -31066,18 +31340,18 @@
       <c r="HU61" s="18"/>
       <c r="HV61" s="18"/>
     </row>
-    <row r="62" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="56"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E62" s="51"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="10" t="s">
         <v>5</v>
       </c>
@@ -31238,10 +31512,10 @@
         <v>258</v>
       </c>
       <c r="BI62" s="18">
-        <v>252</v>
+        <v>286.26292508072737</v>
       </c>
       <c r="BJ62" s="18">
-        <v>246</v>
+        <v>278.53382610354771</v>
       </c>
       <c r="BL62" s="18"/>
       <c r="BM62" s="18"/>
@@ -31554,18 +31828,18 @@
       <c r="HU62" s="18"/>
       <c r="HV62" s="18"/>
     </row>
-    <row r="63" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="56"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E63" s="51"/>
+      <c r="E63" s="41"/>
       <c r="F63" s="10" t="s">
         <v>5</v>
       </c>
@@ -31726,10 +32000,10 @@
         <v>139</v>
       </c>
       <c r="BI63" s="18">
-        <v>136</v>
+        <v>152.97173961745264</v>
       </c>
       <c r="BJ63" s="18">
-        <v>134</v>
+        <v>149.60636134586869</v>
       </c>
       <c r="BL63" s="18"/>
       <c r="BM63" s="18"/>
@@ -32042,18 +32316,18 @@
       <c r="HU63" s="18"/>
       <c r="HV63" s="18"/>
     </row>
-    <row r="64" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="56"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E64" s="51"/>
+      <c r="E64" s="41"/>
       <c r="F64" s="10" t="s">
         <v>5</v>
       </c>
@@ -32214,10 +32488,10 @@
         <v>102</v>
       </c>
       <c r="BI64" s="18">
-        <v>100</v>
+        <v>148.76139238700313</v>
       </c>
       <c r="BJ64" s="18">
-        <v>98</v>
+        <v>145.33988036210206</v>
       </c>
       <c r="BL64" s="18"/>
       <c r="BM64" s="18"/>
@@ -32530,18 +32804,18 @@
       <c r="HU64" s="18"/>
       <c r="HV64" s="18"/>
     </row>
-    <row r="65" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="56"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E65" s="51"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="10" t="s">
         <v>5</v>
       </c>
@@ -32671,17 +32945,42 @@
       <c r="AX65" s="18">
         <v>16.706276473528664</v>
       </c>
-      <c r="AZ65" s="18"/>
-      <c r="BA65" s="18"/>
-      <c r="BB65" s="18"/>
-      <c r="BC65" s="18"/>
-      <c r="BD65" s="18"/>
-      <c r="BE65" s="18"/>
-      <c r="BF65" s="18"/>
-      <c r="BG65" s="18"/>
-      <c r="BH65" s="18"/>
-      <c r="BI65" s="18"/>
-      <c r="BJ65" s="18"/>
+      <c r="AY65" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ65" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB65" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC65" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD65" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE65" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF65" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG65" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH65" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI65" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ65" s="18">
+        <v>0</v>
+      </c>
       <c r="BL65" s="18"/>
       <c r="BM65" s="18"/>
       <c r="BN65" s="18"/>
@@ -32993,18 +33292,18 @@
       <c r="HU65" s="18"/>
       <c r="HV65" s="18"/>
     </row>
-    <row r="66" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="56"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E66" s="51"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="10" t="s">
         <v>5</v>
       </c>
@@ -33165,10 +33464,10 @@
         <v>549</v>
       </c>
       <c r="BI66" s="18">
-        <v>538</v>
+        <v>526.93053156833673</v>
       </c>
       <c r="BJ66" s="18">
-        <v>527</v>
+        <v>512.17647668442328</v>
       </c>
       <c r="BL66" s="18"/>
       <c r="BM66" s="18"/>
@@ -33481,18 +33780,18 @@
       <c r="HU66" s="18"/>
       <c r="HV66" s="18"/>
     </row>
-    <row r="67" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="56"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E67" s="51"/>
+      <c r="E67" s="41"/>
       <c r="F67" s="10" t="s">
         <v>5</v>
       </c>
@@ -33622,17 +33921,42 @@
       <c r="AX67" s="18">
         <v>6.0730165133430978</v>
       </c>
-      <c r="AZ67" s="18"/>
-      <c r="BA67" s="18"/>
-      <c r="BB67" s="18"/>
-      <c r="BC67" s="18"/>
-      <c r="BD67" s="18"/>
-      <c r="BE67" s="18"/>
-      <c r="BF67" s="18"/>
-      <c r="BG67" s="18"/>
-      <c r="BH67" s="18"/>
-      <c r="BI67" s="18"/>
-      <c r="BJ67" s="18"/>
+      <c r="AY67" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB67" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC67" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD67" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE67" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF67" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG67" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH67" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI67" s="18">
+        <v>61.951734261052621</v>
+      </c>
+      <c r="BJ67" s="18">
+        <v>60.712699575831564</v>
+      </c>
       <c r="BL67" s="18"/>
       <c r="BM67" s="18"/>
       <c r="BN67" s="18"/>
@@ -33944,18 +34268,18 @@
       <c r="HU67" s="18"/>
       <c r="HV67" s="18"/>
     </row>
-    <row r="68" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="56"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="51"/>
+      <c r="E68" s="41"/>
       <c r="F68" s="10" t="s">
         <v>5</v>
       </c>
@@ -34085,17 +34409,42 @@
       <c r="AX68" s="18">
         <v>0</v>
       </c>
-      <c r="AZ68" s="18"/>
-      <c r="BA68" s="18"/>
-      <c r="BB68" s="18"/>
-      <c r="BC68" s="18"/>
-      <c r="BD68" s="18"/>
-      <c r="BE68" s="18"/>
-      <c r="BF68" s="18"/>
-      <c r="BG68" s="18"/>
-      <c r="BH68" s="18"/>
-      <c r="BI68" s="18"/>
-      <c r="BJ68" s="18"/>
+      <c r="AY68" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ68" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA68" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB68" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC68" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD68" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE68" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF68" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG68" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH68" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI68" s="18">
+        <v>16.992143224324213</v>
+      </c>
+      <c r="BJ68" s="18">
+        <v>16.53335535726746</v>
+      </c>
       <c r="BL68" s="18"/>
       <c r="BM68" s="18"/>
       <c r="BN68" s="18"/>
@@ -34407,18 +34756,18 @@
       <c r="HU68" s="18"/>
       <c r="HV68" s="18"/>
     </row>
-    <row r="69" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="56"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="51"/>
+      <c r="E69" s="41"/>
       <c r="F69" s="10" t="s">
         <v>5</v>
       </c>
@@ -34579,10 +34928,10 @@
         <v>48</v>
       </c>
       <c r="BI69" s="18">
-        <v>47</v>
+        <v>57.774327873684207</v>
       </c>
       <c r="BJ69" s="18">
-        <v>47</v>
+        <v>56.618841316210521</v>
       </c>
       <c r="BL69" s="18"/>
       <c r="BM69" s="18"/>
@@ -34895,18 +35244,18 @@
       <c r="HU69" s="18"/>
       <c r="HV69" s="18"/>
     </row>
-    <row r="70" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="56"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="51"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="10" t="s">
         <v>5</v>
       </c>
@@ -35067,10 +35416,10 @@
         <v>652</v>
       </c>
       <c r="BI70" s="18">
-        <v>642</v>
+        <v>663.4253661794736</v>
       </c>
       <c r="BJ70" s="18">
-        <v>633</v>
+        <v>643.52260519408935</v>
       </c>
       <c r="BL70" s="18"/>
       <c r="BM70" s="18"/>
@@ -35383,18 +35732,18 @@
       <c r="HU70" s="18"/>
       <c r="HV70" s="18"/>
     </row>
-    <row r="71" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="56"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="51"/>
+      <c r="E71" s="41"/>
       <c r="F71" s="10" t="s">
         <v>5</v>
       </c>
@@ -35555,10 +35904,10 @@
         <v>126.99999999999999</v>
       </c>
       <c r="BI71" s="18">
-        <v>124</v>
+        <v>134.14573623967576</v>
       </c>
       <c r="BJ71" s="18">
-        <v>121.00000000000001</v>
+        <v>131.19453004240287</v>
       </c>
       <c r="BL71" s="18"/>
       <c r="BM71" s="18"/>
@@ -35871,18 +36220,18 @@
       <c r="HU71" s="18"/>
       <c r="HV71" s="18"/>
     </row>
-    <row r="72" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="56"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="51"/>
+      <c r="E72" s="41"/>
       <c r="F72" s="10" t="s">
         <v>5</v>
       </c>
@@ -36043,10 +36392,10 @@
         <v>717</v>
       </c>
       <c r="BI72" s="18">
-        <v>703</v>
+        <v>694.90815509494735</v>
       </c>
       <c r="BJ72" s="18">
-        <v>689</v>
+        <v>668.50164520133933</v>
       </c>
       <c r="BL72" s="18"/>
       <c r="BM72" s="18"/>
@@ -36359,18 +36708,18 @@
       <c r="HU72" s="18"/>
       <c r="HV72" s="18"/>
     </row>
-    <row r="73" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="56"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E73" s="51"/>
+      <c r="E73" s="41"/>
       <c r="F73" s="10" t="s">
         <v>5</v>
       </c>
@@ -36531,10 +36880,10 @@
         <v>160</v>
       </c>
       <c r="BI73" s="18">
-        <v>157</v>
+        <v>183.39081537183156</v>
       </c>
       <c r="BJ73" s="18">
-        <v>153</v>
+        <v>179.35621743365127</v>
       </c>
       <c r="BL73" s="18"/>
       <c r="BM73" s="18"/>
@@ -36847,18 +37196,18 @@
       <c r="HU73" s="18"/>
       <c r="HV73" s="18"/>
     </row>
-    <row r="74" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="56"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E74" s="51"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="10" t="s">
         <v>5</v>
       </c>
@@ -37019,10 +37368,10 @@
         <v>537</v>
       </c>
       <c r="BI74" s="18">
-        <v>525</v>
+        <v>539.02355852035896</v>
       </c>
       <c r="BJ74" s="18">
-        <v>513</v>
+        <v>521.23578108918707</v>
       </c>
       <c r="BL74" s="18"/>
       <c r="BM74" s="18"/>
@@ -37335,18 +37684,18 @@
       <c r="HU74" s="18"/>
       <c r="HV74" s="18"/>
     </row>
-    <row r="75" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E75" s="51"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="10" t="s">
         <v>5</v>
       </c>
@@ -37507,10 +37856,10 @@
         <v>178</v>
       </c>
       <c r="BI75" s="18">
-        <v>174</v>
+        <v>176.15450242598683</v>
       </c>
       <c r="BJ75" s="18">
-        <v>171</v>
+        <v>171.75063986533715</v>
       </c>
       <c r="BL75" s="18"/>
       <c r="BM75" s="18"/>
@@ -37823,18 +38172,18 @@
       <c r="HU75" s="18"/>
       <c r="HV75" s="18"/>
     </row>
-    <row r="76" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="56"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="51"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="10" t="s">
         <v>5</v>
       </c>
@@ -37995,10 +38344,10 @@
         <v>301</v>
       </c>
       <c r="BI76" s="18">
-        <v>294</v>
+        <v>437.42082490407842</v>
       </c>
       <c r="BJ76" s="18">
-        <v>288</v>
+        <v>422.98593768224379</v>
       </c>
       <c r="BL76" s="18"/>
       <c r="BM76" s="18"/>
@@ -38311,11 +38660,11 @@
       <c r="HU76" s="18"/>
       <c r="HV76" s="18"/>
     </row>
-    <row r="77" spans="1:230" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:230" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -38324,7 +38673,7 @@
       <c r="D77" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="52" t="s">
+      <c r="E77" s="42" t="s">
         <v>140</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -38487,10 +38836,10 @@
         <v>3673.0000000000005</v>
       </c>
       <c r="BI77" s="18">
-        <v>3537.9999999999995</v>
+        <v>4280.7106776380688</v>
       </c>
       <c r="BJ77" s="18">
-        <v>3408</v>
+        <v>4117.2087324319091</v>
       </c>
       <c r="BL77" s="18"/>
       <c r="BM77" s="18"/>
@@ -38803,18 +39152,18 @@
       <c r="HU77" s="18"/>
       <c r="HV77" s="18"/>
     </row>
-    <row r="78" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="50"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E78" s="52"/>
+      <c r="E78" s="42"/>
       <c r="F78" s="10" t="s">
         <v>5</v>
       </c>
@@ -38975,10 +39324,10 @@
         <v>249</v>
       </c>
       <c r="BI78" s="18">
-        <v>240</v>
+        <v>196.79663206358723</v>
       </c>
       <c r="BJ78" s="18">
-        <v>232</v>
+        <v>189.38514215593307</v>
       </c>
       <c r="BL78" s="18"/>
       <c r="BM78" s="18"/>
@@ -39291,18 +39640,18 @@
       <c r="HU78" s="18"/>
       <c r="HV78" s="18"/>
     </row>
-    <row r="79" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="50"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="7" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="52"/>
+      <c r="E79" s="42"/>
       <c r="F79" s="10" t="s">
         <v>5</v>
       </c>
@@ -39463,10 +39812,10 @@
         <v>13.999999999999998</v>
       </c>
       <c r="BI79" s="18">
-        <v>13</v>
+        <v>89.563092568535126</v>
       </c>
       <c r="BJ79" s="18">
-        <v>13</v>
+        <v>86.098805584299924</v>
       </c>
       <c r="BL79" s="18"/>
       <c r="BM79" s="18"/>
@@ -39779,18 +40128,18 @@
       <c r="HU79" s="18"/>
       <c r="HV79" s="18"/>
     </row>
-    <row r="80" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="50"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E80" s="52"/>
+      <c r="E80" s="42"/>
       <c r="F80" s="10" t="s">
         <v>5</v>
       </c>
@@ -39839,17 +40188,42 @@
       <c r="AV80" s="18"/>
       <c r="AW80" s="18"/>
       <c r="AX80" s="18"/>
-      <c r="AZ80" s="18"/>
-      <c r="BA80" s="18"/>
-      <c r="BB80" s="18"/>
-      <c r="BC80" s="18"/>
-      <c r="BD80" s="18"/>
-      <c r="BE80" s="18"/>
-      <c r="BF80" s="18"/>
-      <c r="BG80" s="18"/>
-      <c r="BH80" s="18"/>
-      <c r="BI80" s="18"/>
-      <c r="BJ80" s="18"/>
+      <c r="AY80" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ80" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA80" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB80" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC80" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD80" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE80" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF80" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG80" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH80" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI80" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ80" s="18">
+        <v>0</v>
+      </c>
       <c r="BL80" s="18"/>
       <c r="BM80" s="18"/>
       <c r="BN80" s="18"/>
@@ -39945,18 +40319,18 @@
       <c r="HU80" s="18"/>
       <c r="HV80" s="18"/>
     </row>
-    <row r="81" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="50"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E81" s="52"/>
+      <c r="E81" s="42"/>
       <c r="F81" s="10" t="s">
         <v>5</v>
       </c>
@@ -40005,17 +40379,42 @@
       <c r="AV81" s="18"/>
       <c r="AW81" s="18"/>
       <c r="AX81" s="18"/>
-      <c r="AZ81" s="18"/>
-      <c r="BA81" s="18"/>
-      <c r="BB81" s="18"/>
-      <c r="BC81" s="18"/>
-      <c r="BD81" s="18"/>
-      <c r="BE81" s="18"/>
-      <c r="BF81" s="18"/>
-      <c r="BG81" s="18"/>
-      <c r="BH81" s="18"/>
-      <c r="BI81" s="18"/>
-      <c r="BJ81" s="18"/>
+      <c r="AY81" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ81" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA81" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB81" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC81" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD81" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE81" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF81" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG81" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH81" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI81" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ81" s="18">
+        <v>0</v>
+      </c>
       <c r="BL81" s="18"/>
       <c r="BM81" s="18"/>
       <c r="BN81" s="18"/>
@@ -40111,18 +40510,18 @@
       <c r="HU81" s="18"/>
       <c r="HV81" s="18"/>
     </row>
-    <row r="82" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="50"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E82" s="52"/>
+      <c r="E82" s="42"/>
       <c r="F82" s="10" t="s">
         <v>5</v>
       </c>
@@ -40283,10 +40682,10 @@
         <v>41.000000000000007</v>
       </c>
       <c r="BI82" s="18">
-        <v>39</v>
+        <v>49.408024462175113</v>
       </c>
       <c r="BJ82" s="18">
-        <v>38</v>
+        <v>47.547285938254532</v>
       </c>
       <c r="BL82" s="18"/>
       <c r="BM82" s="18"/>
@@ -40599,18 +40998,18 @@
       <c r="HU82" s="18"/>
       <c r="HV82" s="18"/>
     </row>
-    <row r="83" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="50"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="52"/>
+      <c r="E83" s="42"/>
       <c r="F83" s="10" t="s">
         <v>5</v>
       </c>
@@ -40771,10 +41170,10 @@
         <v>43</v>
       </c>
       <c r="BI83" s="18">
-        <v>42</v>
+        <v>50.23460231340416</v>
       </c>
       <c r="BJ83" s="18">
-        <v>40</v>
+        <v>48.342734326859983</v>
       </c>
       <c r="BL83" s="18"/>
       <c r="BM83" s="18"/>
@@ -41087,18 +41486,18 @@
       <c r="HU83" s="18"/>
       <c r="HV83" s="18"/>
     </row>
-    <row r="84" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="50"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E84" s="52"/>
+      <c r="E84" s="42"/>
       <c r="F84" s="10" t="s">
         <v>5</v>
       </c>
@@ -41259,10 +41658,10 @@
         <v>227</v>
       </c>
       <c r="BI84" s="18">
-        <v>218</v>
+        <v>242.12927922378398</v>
       </c>
       <c r="BJ84" s="18">
-        <v>210</v>
+        <v>232.63525438777566</v>
       </c>
       <c r="BL84" s="18"/>
       <c r="BM84" s="18"/>
@@ -41575,18 +41974,18 @@
       <c r="HU84" s="18"/>
       <c r="HV84" s="18"/>
     </row>
-    <row r="85" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="50"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E85" s="52"/>
+      <c r="E85" s="42"/>
       <c r="F85" s="10" t="s">
         <v>5</v>
       </c>
@@ -41747,10 +42146,10 @@
         <v>98.000000000000014</v>
       </c>
       <c r="BI85" s="18">
-        <v>94</v>
+        <v>144.86306114080679</v>
       </c>
       <c r="BJ85" s="18">
-        <v>90.000000000000014</v>
+        <v>138.289446627302</v>
       </c>
       <c r="BL85" s="18"/>
       <c r="BM85" s="18"/>
@@ -42063,11 +42462,11 @@
       <c r="HU85" s="18"/>
       <c r="HV85" s="18"/>
     </row>
-    <row r="86" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="50"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="7" t="s">
         <v>120</v>
       </c>
@@ -42075,7 +42474,7 @@
         <f>+D85</f>
         <v>COSECHA</v>
       </c>
-      <c r="E86" s="52"/>
+      <c r="E86" s="42"/>
       <c r="F86" s="10" t="s">
         <v>5</v>
       </c>
@@ -42236,10 +42635,10 @@
         <v>932</v>
       </c>
       <c r="BI86" s="18">
-        <v>2384</v>
+        <v>1071.923518391091</v>
       </c>
       <c r="BJ86" s="18">
-        <v>2304</v>
+        <v>2514.361570756887</v>
       </c>
       <c r="BL86" s="18"/>
       <c r="BM86" s="18"/>
@@ -42552,18 +42951,18 @@
       <c r="HU86" s="18"/>
       <c r="HV86" s="18"/>
     </row>
-    <row r="87" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="50"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E87" s="52"/>
+      <c r="E87" s="42"/>
       <c r="F87" s="10" t="s">
         <v>5</v>
       </c>
@@ -43040,18 +43439,18 @@
       <c r="HU87" s="18"/>
       <c r="HV87" s="18"/>
     </row>
-    <row r="88" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="50"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E88" s="52"/>
+      <c r="E88" s="42"/>
       <c r="F88" s="10" t="s">
         <v>5</v>
       </c>
@@ -43212,10 +43611,10 @@
         <v>10534</v>
       </c>
       <c r="BI88" s="18">
-        <v>13065</v>
+        <v>10852.074234452952</v>
       </c>
       <c r="BJ88" s="18">
-        <v>12388</v>
+        <v>13049.593756613538</v>
       </c>
       <c r="BL88" s="18"/>
       <c r="BM88" s="18"/>
@@ -43528,18 +43927,18 @@
       <c r="HU88" s="18"/>
       <c r="HV88" s="18"/>
     </row>
-    <row r="89" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="50"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E89" s="52"/>
+      <c r="E89" s="42"/>
       <c r="F89" s="10" t="s">
         <v>5</v>
       </c>
@@ -43700,10 +44099,10 @@
         <v>1167</v>
       </c>
       <c r="BI89" s="18">
-        <v>1115</v>
+        <v>1207.1744388779443</v>
       </c>
       <c r="BJ89" s="18">
-        <v>1066</v>
+        <v>1151.6185866408175</v>
       </c>
       <c r="BL89" s="18"/>
       <c r="BM89" s="18"/>
@@ -44016,18 +44415,18 @@
       <c r="HU89" s="18"/>
       <c r="HV89" s="18"/>
     </row>
-    <row r="90" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="50"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E90" s="52"/>
+      <c r="E90" s="42"/>
       <c r="F90" s="10" t="s">
         <v>5</v>
       </c>
@@ -44188,10 +44587,10 @@
         <v>483</v>
       </c>
       <c r="BI90" s="18">
-        <v>464</v>
+        <v>777.86498941857872</v>
       </c>
       <c r="BJ90" s="18">
-        <v>446</v>
+        <v>744.17090681442789</v>
       </c>
       <c r="BL90" s="18"/>
       <c r="BM90" s="18"/>
@@ -44504,18 +44903,18 @@
       <c r="HU90" s="18"/>
       <c r="HV90" s="18"/>
     </row>
-    <row r="91" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="50"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E91" s="52"/>
+      <c r="E91" s="42"/>
       <c r="F91" s="10" t="s">
         <v>5</v>
       </c>
@@ -44676,10 +45075,10 @@
         <v>255</v>
       </c>
       <c r="BI91" s="18">
-        <v>241.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="BJ91" s="18">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="BL91" s="18"/>
       <c r="BM91" s="18"/>
@@ -44992,18 +45391,18 @@
       <c r="HU91" s="18"/>
       <c r="HV91" s="18"/>
     </row>
-    <row r="92" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="50"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E92" s="52"/>
+      <c r="E92" s="42"/>
       <c r="F92" s="10" t="s">
         <v>5</v>
       </c>
@@ -45164,10 +45563,10 @@
         <v>19382</v>
       </c>
       <c r="BI92" s="18">
-        <v>19138</v>
+        <v>19621.291217540187</v>
       </c>
       <c r="BJ92" s="18">
-        <v>18804</v>
+        <v>19384.814571334718</v>
       </c>
       <c r="BL92" s="18"/>
       <c r="BM92" s="18"/>
@@ -45480,18 +45879,18 @@
       <c r="HU92" s="18"/>
       <c r="HV92" s="18"/>
     </row>
-    <row r="93" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="50"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E93" s="52"/>
+      <c r="E93" s="42"/>
       <c r="F93" s="10" t="s">
         <v>5</v>
       </c>
@@ -45652,10 +46051,10 @@
         <v>916.00000000000011</v>
       </c>
       <c r="BI93" s="18">
-        <v>897.99999999999989</v>
+        <v>1317.7872037971251</v>
       </c>
       <c r="BJ93" s="18">
-        <v>879.00000000000011</v>
+        <v>1290.9898891870712</v>
       </c>
       <c r="BL93" s="18"/>
       <c r="BM93" s="18"/>
@@ -45968,18 +46367,18 @@
       <c r="HU93" s="18"/>
       <c r="HV93" s="18"/>
     </row>
-    <row r="94" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="50"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E94" s="52"/>
+      <c r="E94" s="42"/>
       <c r="F94" s="10" t="s">
         <v>5</v>
       </c>
@@ -46140,10 +46539,10 @@
         <v>2210</v>
       </c>
       <c r="BI94" s="18">
-        <v>2305</v>
+        <v>2604.0057437675641</v>
       </c>
       <c r="BJ94" s="18">
-        <v>2294</v>
+        <v>2553.9078874334223</v>
       </c>
       <c r="BL94" s="18"/>
       <c r="BM94" s="18"/>
@@ -46456,18 +46855,18 @@
       <c r="HU94" s="18"/>
       <c r="HV94" s="18"/>
     </row>
-    <row r="95" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="50"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E95" s="52"/>
+      <c r="E95" s="42"/>
       <c r="F95" s="10" t="s">
         <v>5</v>
       </c>
@@ -46628,10 +47027,10 @@
         <v>29.000000000000004</v>
       </c>
       <c r="BI95" s="18">
-        <v>29.000000000000004</v>
+        <v>36.248516897657723</v>
       </c>
       <c r="BJ95" s="18">
-        <v>28</v>
+        <v>35.530748172421596</v>
       </c>
       <c r="BL95" s="18"/>
       <c r="BM95" s="18"/>
@@ -46944,18 +47343,18 @@
       <c r="HU95" s="18"/>
       <c r="HV95" s="18"/>
     </row>
-    <row r="96" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="50"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E96" s="52"/>
+      <c r="E96" s="42"/>
       <c r="F96" s="10" t="s">
         <v>5</v>
       </c>
@@ -47432,18 +47831,18 @@
       <c r="HU96" s="18"/>
       <c r="HV96" s="18"/>
     </row>
-    <row r="97" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="50"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E97" s="52"/>
+      <c r="E97" s="42"/>
       <c r="F97" s="10" t="s">
         <v>5</v>
       </c>
@@ -47604,10 +48003,10 @@
         <v>2790</v>
       </c>
       <c r="BI97" s="18">
-        <v>2689</v>
+        <v>3458.8477611117219</v>
       </c>
       <c r="BJ97" s="18">
-        <v>2593</v>
+        <v>3692.7694519354827</v>
       </c>
       <c r="BL97" s="18"/>
       <c r="BM97" s="18"/>
@@ -47920,18 +48319,18 @@
       <c r="HU97" s="18"/>
       <c r="HV97" s="18"/>
     </row>
-    <row r="98" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="50"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E98" s="52"/>
+      <c r="E98" s="42"/>
       <c r="F98" s="10" t="s">
         <v>5</v>
       </c>
@@ -48092,10 +48491,10 @@
         <v>1251</v>
       </c>
       <c r="BI98" s="18">
-        <v>1480</v>
+        <v>1886.4496953309679</v>
       </c>
       <c r="BJ98" s="18">
-        <v>1421</v>
+        <v>1811.6506963297197</v>
       </c>
       <c r="BL98" s="18"/>
       <c r="BM98" s="18"/>
@@ -48300,7 +48699,7 @@
       <c r="HU98" s="18"/>
       <c r="HV98" s="18"/>
     </row>
-    <row r="99" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
@@ -48310,7 +48709,7 @@
       <c r="D99" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E99" s="53" t="s">
+      <c r="E99" s="43" t="s">
         <v>142</v>
       </c>
       <c r="F99" s="8" t="s">
@@ -48473,10 +48872,10 @@
         <v>2101</v>
       </c>
       <c r="BI99" s="18">
-        <v>2068</v>
+        <v>2134</v>
       </c>
       <c r="BJ99" s="18">
-        <v>2063</v>
+        <v>2127</v>
       </c>
       <c r="BL99" s="18"/>
       <c r="BM99" s="18"/>
@@ -48789,7 +49188,7 @@
       <c r="HU99" s="18"/>
       <c r="HV99" s="18"/>
     </row>
-    <row r="100" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
@@ -48799,7 +49198,7 @@
       <c r="D100" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="54"/>
+      <c r="E100" s="44"/>
       <c r="F100" s="8" t="s">
         <v>2</v>
       </c>
@@ -48960,10 +49359,10 @@
         <v>8326</v>
       </c>
       <c r="BI100" s="18">
-        <v>8253</v>
+        <v>6810</v>
       </c>
       <c r="BJ100" s="18">
-        <v>8373</v>
+        <v>6789</v>
       </c>
       <c r="BL100" s="18"/>
       <c r="BM100" s="18"/>
@@ -49276,7 +49675,7 @@
       <c r="HU100" s="18"/>
       <c r="HV100" s="18"/>
     </row>
-    <row r="101" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -49286,7 +49685,7 @@
       <c r="D101" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="54"/>
+      <c r="E101" s="44"/>
       <c r="F101" s="8" t="s">
         <v>2</v>
       </c>
@@ -49416,17 +49815,42 @@
       <c r="AX101" s="18">
         <v>124</v>
       </c>
-      <c r="AZ101" s="18"/>
-      <c r="BA101" s="18"/>
-      <c r="BB101" s="18"/>
-      <c r="BC101" s="18"/>
-      <c r="BD101" s="18"/>
-      <c r="BE101" s="18"/>
-      <c r="BF101" s="18"/>
-      <c r="BG101" s="18"/>
-      <c r="BH101" s="18"/>
-      <c r="BI101" s="18"/>
-      <c r="BJ101" s="18"/>
+      <c r="AY101" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ101" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA101" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB101" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC101" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD101" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE101" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF101" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG101" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH101" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI101" s="18">
+        <v>134</v>
+      </c>
+      <c r="BJ101" s="18">
+        <v>133</v>
+      </c>
       <c r="BL101" s="18"/>
       <c r="BM101" s="18"/>
       <c r="BN101" s="18"/>
@@ -49738,7 +50162,7 @@
       <c r="HU101" s="18"/>
       <c r="HV101" s="18"/>
     </row>
-    <row r="102" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>102</v>
       </c>
@@ -49748,7 +50172,7 @@
       <c r="D102" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="54"/>
+      <c r="E102" s="44"/>
       <c r="F102" s="8" t="s">
         <v>2</v>
       </c>
@@ -49909,10 +50333,10 @@
         <v>2162</v>
       </c>
       <c r="BI102" s="18">
-        <v>2114</v>
+        <v>2203</v>
       </c>
       <c r="BJ102" s="18">
-        <v>2068</v>
+        <v>2196</v>
       </c>
       <c r="BL102" s="18"/>
       <c r="BM102" s="18"/>
@@ -50225,7 +50649,7 @@
       <c r="HU102" s="18"/>
       <c r="HV102" s="18"/>
     </row>
-    <row r="103" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>103</v>
       </c>
@@ -50235,7 +50659,7 @@
       <c r="D103" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="54"/>
+      <c r="E103" s="44"/>
       <c r="F103" s="8" t="s">
         <v>2</v>
       </c>
@@ -50712,7 +51136,7 @@
       <c r="HU103" s="18"/>
       <c r="HV103" s="18"/>
     </row>
-    <row r="104" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>104</v>
       </c>
@@ -50722,7 +51146,7 @@
       <c r="D104" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="54"/>
+      <c r="E104" s="44"/>
       <c r="F104" s="8" t="s">
         <v>2</v>
       </c>
@@ -50883,10 +51307,10 @@
         <v>1957</v>
       </c>
       <c r="BI104" s="18">
-        <v>1924</v>
+        <v>2128</v>
       </c>
       <c r="BJ104" s="18">
-        <v>1892</v>
+        <v>2122</v>
       </c>
       <c r="BL104" s="18"/>
       <c r="BM104" s="18"/>
@@ -51199,7 +51623,7 @@
       <c r="HU104" s="18"/>
       <c r="HV104" s="18"/>
     </row>
-    <row r="105" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>105</v>
       </c>
@@ -51209,7 +51633,7 @@
       <c r="D105" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="55"/>
+      <c r="E105" s="45"/>
       <c r="F105" s="14" t="s">
         <v>2</v>
       </c>
@@ -51266,17 +51690,42 @@
       <c r="AV105" s="18"/>
       <c r="AW105" s="18"/>
       <c r="AX105" s="18"/>
-      <c r="AZ105" s="18"/>
-      <c r="BA105" s="18"/>
-      <c r="BB105" s="18"/>
-      <c r="BC105" s="18"/>
-      <c r="BD105" s="18"/>
-      <c r="BE105" s="18"/>
-      <c r="BF105" s="18"/>
-      <c r="BG105" s="18"/>
-      <c r="BH105" s="18"/>
-      <c r="BI105" s="18"/>
-      <c r="BJ105" s="18"/>
+      <c r="AY105" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ105" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA105" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB105" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC105" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD105" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE105" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF105" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG105" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH105" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI105" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ105" s="18">
+        <v>0</v>
+      </c>
       <c r="BL105" s="18"/>
       <c r="BM105" s="18"/>
       <c r="BN105" s="18"/>
@@ -51372,7 +51821,7 @@
       <c r="HU105" s="18"/>
       <c r="HV105" s="18"/>
     </row>
-    <row r="106" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106</v>
       </c>
@@ -51382,7 +51831,7 @@
       <c r="D106" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E106" s="51" t="s">
+      <c r="E106" s="41" t="s">
         <v>145</v>
       </c>
       <c r="F106" s="8" t="s">
@@ -51545,10 +51994,10 @@
         <v>7184</v>
       </c>
       <c r="BI106" s="18">
-        <v>6961</v>
+        <v>7150</v>
       </c>
       <c r="BJ106" s="18">
-        <v>7264</v>
+        <v>7169</v>
       </c>
       <c r="BL106" s="18"/>
       <c r="BM106" s="18"/>
@@ -51957,7 +52406,7 @@
         <v>183.3461500118261</v>
       </c>
     </row>
-    <row r="107" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>107</v>
       </c>
@@ -51967,7 +52416,7 @@
       <c r="D107" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E107" s="51"/>
+      <c r="E107" s="41"/>
       <c r="F107" s="8" t="s">
         <v>2</v>
       </c>
@@ -52128,7 +52577,7 @@
         <v>858</v>
       </c>
       <c r="BI107" s="18">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="BJ107" s="18">
         <v>838</v>
@@ -52516,7 +52965,7 @@
         <v>44.022271040805471</v>
       </c>
     </row>
-    <row r="108" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>108</v>
       </c>
@@ -52897,7 +53346,7 @@
       <c r="HU108" s="18"/>
       <c r="HV108" s="18"/>
     </row>
-    <row r="109" spans="1:230" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:230" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
@@ -53026,6 +53475,42 @@
       </c>
       <c r="AX109" s="18">
         <v>276</v>
+      </c>
+      <c r="AY109" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ109" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA109" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB109" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC109" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD109" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE109" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF109" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG109" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH109" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI109" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ109" s="18">
+        <v>0</v>
       </c>
       <c r="BX109" s="18"/>
       <c r="BY109" s="18"/>
@@ -53321,30 +53806,30 @@
     <sortCondition ref="D2"/>
   </sortState>
   <mergeCells count="24">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="O1:AX1"/>
+    <mergeCell ref="AY1:BJ1"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="BK1:BV1"/>
+    <mergeCell ref="DG1:EP1"/>
+    <mergeCell ref="EQ1:FZ1"/>
+    <mergeCell ref="GA1:GL1"/>
+    <mergeCell ref="GM1:HV1"/>
+    <mergeCell ref="BW1:DF1"/>
+    <mergeCell ref="B77:B98"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E77:E98"/>
+    <mergeCell ref="E35:E45"/>
+    <mergeCell ref="E46:E76"/>
+    <mergeCell ref="E99:E105"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B46:B76"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B77:B98"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E77:E98"/>
-    <mergeCell ref="E35:E45"/>
-    <mergeCell ref="E46:E76"/>
-    <mergeCell ref="E99:E105"/>
-    <mergeCell ref="BK1:BV1"/>
-    <mergeCell ref="DG1:EP1"/>
-    <mergeCell ref="EQ1:FZ1"/>
-    <mergeCell ref="GA1:GL1"/>
-    <mergeCell ref="GM1:HV1"/>
-    <mergeCell ref="BW1:DF1"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="O1:AX1"/>
-    <mergeCell ref="AY1:BJ1"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -53356,13 +53841,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL100"/>
   <sheetViews>
-    <sheetView topLeftCell="H65" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>240</v>
       </c>
@@ -53475,7 +53960,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -53588,7 +54073,7 @@
         <v>241.67952857920338</v>
       </c>
     </row>
-    <row r="3" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -53701,7 +54186,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -53814,7 +54299,7 @@
         <v>270.02892245524038</v>
       </c>
     </row>
-    <row r="5" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -53927,7 +54412,7 @@
         <v>4102.2640724758221</v>
       </c>
     </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>102</v>
       </c>
@@ -54040,7 +54525,7 @@
         <v>2053.9119778237118</v>
       </c>
     </row>
-    <row r="7" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>90</v>
       </c>
@@ -54153,7 +54638,7 @@
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -54266,7 +54751,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>74</v>
       </c>
@@ -54379,7 +54864,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>88</v>
       </c>
@@ -54492,7 +54977,7 @@
         <v>1328.4622710408055</v>
       </c>
     </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -54605,7 +55090,7 @@
         <v>223.18698137428331</v>
       </c>
     </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>93</v>
       </c>
@@ -54718,7 +55203,7 @@
         <v>346.37</v>
       </c>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -54831,7 +55316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>48</v>
       </c>
@@ -54944,7 +55429,7 @@
         <v>101.14504726537734</v>
       </c>
     </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -55057,7 +55542,7 @@
         <v>43.51194882414984</v>
       </c>
     </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>35</v>
       </c>
@@ -55170,7 +55655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -55283,7 +55768,7 @@
         <v>43.415413944454336</v>
       </c>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -55396,7 +55881,7 @@
         <v>10673.88124869988</v>
       </c>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>94</v>
       </c>
@@ -55509,7 +55994,7 @@
         <v>775.1289911407772</v>
       </c>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>84</v>
       </c>
@@ -55622,7 +56107,7 @@
         <v>1486.7882018705061</v>
       </c>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>9</v>
       </c>
@@ -55735,7 +56220,7 @@
         <v>357.82761206792054</v>
       </c>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>24</v>
       </c>
@@ -55848,7 +56333,7 @@
         <v>1295.1142697681289</v>
       </c>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>62</v>
       </c>
@@ -55961,7 +56446,7 @@
         <v>1044.9708882289606</v>
       </c>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>89</v>
       </c>
@@ -56074,7 +56559,7 @@
         <v>1143.5438757989129</v>
       </c>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>63</v>
       </c>
@@ -56187,7 +56672,7 @@
         <v>35.42</v>
       </c>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>39</v>
       </c>
@@ -56300,7 +56785,7 @@
         <v>168.33191690678112</v>
       </c>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>71</v>
       </c>
@@ -56413,7 +56898,7 @@
         <v>2268.518448742554</v>
       </c>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>13</v>
       </c>
@@ -56526,7 +57011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>82</v>
       </c>
@@ -56639,7 +57124,7 @@
         <v>16.836842105263159</v>
       </c>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>95</v>
       </c>
@@ -56752,7 +57237,7 @@
         <v>178.97894736842107</v>
       </c>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>17</v>
       </c>
@@ -56865,7 +57350,7 @@
         <v>177.75166489491025</v>
       </c>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>50</v>
       </c>
@@ -56978,7 +57463,7 @@
         <v>298.14903903601316</v>
       </c>
     </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -57091,7 +57576,7 @@
         <v>78.513440719253666</v>
       </c>
     </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -57204,7 +57689,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>55</v>
       </c>
@@ -57317,7 +57802,7 @@
         <v>358.79371173359965</v>
       </c>
     </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>120</v>
       </c>
@@ -57430,7 +57915,7 @@
         <v>720.68788695878015</v>
       </c>
     </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>77</v>
       </c>
@@ -57543,7 +58028,7 @@
         <v>21.55956069760073</v>
       </c>
     </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>250</v>
       </c>
@@ -57656,7 +58141,7 @@
         <v>431.05108259664678</v>
       </c>
     </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -57769,7 +58254,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>75</v>
       </c>
@@ -57882,7 +58367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>23</v>
       </c>
@@ -57995,7 +58480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>40</v>
       </c>
@@ -58108,7 +58593,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>49</v>
       </c>
@@ -58221,7 +58706,7 @@
         <v>2721.2710334893677</v>
       </c>
     </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>20</v>
       </c>
@@ -58334,7 +58819,7 @@
         <v>769.87</v>
       </c>
     </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>26</v>
       </c>
@@ -58447,7 +58932,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>41</v>
       </c>
@@ -58560,7 +59045,7 @@
         <v>100.67844404509511</v>
       </c>
     </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>60</v>
       </c>
@@ -58673,7 +59158,7 @@
         <v>291.59687974121869</v>
       </c>
     </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>14</v>
       </c>
@@ -58786,7 +59271,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>96</v>
       </c>
@@ -58899,7 +59384,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>61</v>
       </c>
@@ -59012,7 +59497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>42</v>
       </c>
@@ -59125,7 +59610,7 @@
         <v>161.93565490488439</v>
       </c>
     </row>
-    <row r="52" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>65</v>
       </c>
@@ -59238,7 +59723,7 @@
         <v>199.72319840747804</v>
       </c>
     </row>
-    <row r="53" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -59351,7 +59836,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>29</v>
       </c>
@@ -59464,7 +59949,7 @@
         <v>274.77573052788193</v>
       </c>
     </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>28</v>
       </c>
@@ -59577,7 +60062,7 @@
         <v>164.53168268575041</v>
       </c>
     </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>81</v>
       </c>
@@ -59690,7 +60175,7 @@
         <v>1046.4302986484972</v>
       </c>
     </row>
-    <row r="57" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>123</v>
       </c>
@@ -59803,7 +60288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>27</v>
       </c>
@@ -59916,7 +60401,7 @@
         <v>424.16586138704031</v>
       </c>
     </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>76</v>
       </c>
@@ -60029,7 +60514,7 @@
         <v>34.042329965261729</v>
       </c>
     </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>31</v>
       </c>
@@ -60142,7 +60627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>7</v>
       </c>
@@ -60255,7 +60740,7 @@
         <v>6561.3330694320539</v>
       </c>
     </row>
-    <row r="62" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>97</v>
       </c>
@@ -60368,7 +60853,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>11</v>
       </c>
@@ -60481,7 +60966,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>12</v>
       </c>
@@ -60594,7 +61079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>87</v>
       </c>
@@ -60707,7 +61192,7 @@
         <v>8098.4161500118262</v>
       </c>
     </row>
-    <row r="66" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>44</v>
       </c>
@@ -60820,7 +61305,7 @@
         <v>55.852020100149971</v>
       </c>
     </row>
-    <row r="67" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>43</v>
       </c>
@@ -60933,7 +61418,7 @@
         <v>104.60267569775863</v>
       </c>
     </row>
-    <row r="68" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>4</v>
       </c>
@@ -61046,7 +61531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>80</v>
       </c>
@@ -61159,7 +61644,7 @@
         <v>1281.2035087719298</v>
       </c>
     </row>
-    <row r="70" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>92</v>
       </c>
@@ -61272,7 +61757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>56</v>
       </c>
@@ -61385,7 +61870,7 @@
         <v>656.72149362270102</v>
       </c>
     </row>
-    <row r="72" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>53</v>
       </c>
@@ -61498,7 +61983,7 @@
         <v>340.53510752160719</v>
       </c>
     </row>
-    <row r="73" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>64</v>
       </c>
@@ -61611,7 +62096,7 @@
         <v>411.85144001972822</v>
       </c>
     </row>
-    <row r="74" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>67</v>
       </c>
@@ -61724,7 +62209,7 @@
         <v>297.29927579693958</v>
       </c>
     </row>
-    <row r="75" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>52</v>
       </c>
@@ -61837,7 +62322,7 @@
         <v>6.034067813065092</v>
       </c>
     </row>
-    <row r="76" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>128</v>
       </c>
@@ -61950,7 +62435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>19</v>
       </c>
@@ -62063,7 +62548,7 @@
         <v>51.14369070748679</v>
       </c>
     </row>
-    <row r="78" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>68</v>
       </c>
@@ -62176,7 +62661,7 @@
         <v>79.815851318533817</v>
       </c>
     </row>
-    <row r="79" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>83</v>
       </c>
@@ -62289,7 +62774,7 @@
         <v>547.54909660809335</v>
       </c>
     </row>
-    <row r="80" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>85</v>
       </c>
@@ -62402,7 +62887,7 @@
         <v>19.191981193323493</v>
       </c>
     </row>
-    <row r="81" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>57</v>
       </c>
@@ -62515,7 +63000,7 @@
         <v>213.36711804378618</v>
       </c>
     </row>
-    <row r="82" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>51</v>
       </c>
@@ -62628,7 +63113,7 @@
         <v>144.50160040708752</v>
       </c>
     </row>
-    <row r="83" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>73</v>
       </c>
@@ -62741,7 +63226,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>78</v>
       </c>
@@ -62854,7 +63339,7 @@
         <v>4562.1687487702629</v>
       </c>
     </row>
-    <row r="85" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>46</v>
       </c>
@@ -62967,7 +63452,7 @@
         <v>419.54016460719777</v>
       </c>
     </row>
-    <row r="86" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>45</v>
       </c>
@@ -63080,7 +63565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>91</v>
       </c>
@@ -63193,7 +63678,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="88" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>121</v>
       </c>
@@ -63306,7 +63791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>10</v>
       </c>
@@ -63419,7 +63904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>32</v>
       </c>
@@ -63532,7 +64017,7 @@
         <v>129.35342923783566</v>
       </c>
     </row>
-    <row r="91" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>86</v>
       </c>
@@ -63645,7 +64130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>66</v>
       </c>
@@ -63758,7 +64243,7 @@
         <v>398.80821773267928</v>
       </c>
     </row>
-    <row r="93" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>69</v>
       </c>
@@ -63871,7 +64356,7 @@
         <v>34.049736550958976</v>
       </c>
     </row>
-    <row r="94" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>37</v>
       </c>
@@ -63984,7 +64469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>129</v>
       </c>
@@ -64097,7 +64582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>122</v>
       </c>
@@ -64210,7 +64695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>15</v>
       </c>
@@ -64323,7 +64808,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="98" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>70</v>
       </c>
@@ -64436,7 +64921,7 @@
         <v>12.633321202376193</v>
       </c>
     </row>
-    <row r="99" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>21</v>
       </c>
@@ -64549,7 +65034,7 @@
         <v>157.42051167864193</v>
       </c>
     </row>
-    <row r="100" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>22</v>
       </c>
@@ -64676,9 +65161,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>239</v>
       </c>
@@ -64687,7 +65172,7 @@
       </c>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -64710,7 +65195,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>213</v>
       </c>
@@ -64736,7 +65221,7 @@
         <v>576.25056779653801</v>
       </c>
     </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>214</v>
       </c>
@@ -64762,7 +65247,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>215</v>
       </c>
@@ -64788,7 +65273,7 @@
         <v>356.37952430196481</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>216</v>
       </c>
@@ -64814,7 +65299,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>217</v>
       </c>
@@ -64840,7 +65325,7 @@
         <v>12.469995814853563</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>218</v>
       </c>
@@ -64866,7 +65351,7 @@
         <v>733.50918196205396</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>219</v>
       </c>
@@ -64892,7 +65377,7 @@
         <v>1134.6534110192285</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>220</v>
       </c>
@@ -64918,7 +65403,7 @@
         <v>401.3091177268941</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>221</v>
       </c>
@@ -64944,7 +65429,7 @@
         <v>1590.6204756980351</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>222</v>
       </c>
@@ -64970,7 +65455,7 @@
         <v>5814.8312821716072</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>223</v>
       </c>
@@ -64984,7 +65469,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>224</v>
       </c>
@@ -64998,7 +65483,7 @@
         <v>232.85485522527966</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>225</v>
       </c>
@@ -65012,7 +65497,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>226</v>
       </c>
@@ -65026,7 +65511,7 @@
         <v>517.42857142857144</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>227</v>
       </c>
@@ -65040,7 +65525,7 @@
         <v>18.071428571428573</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>228</v>
       </c>
@@ -65054,7 +65539,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>229</v>
       </c>
@@ -65068,7 +65553,7 @@
         <v>1195.0711792621335</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>230</v>
       </c>
@@ -65082,7 +65567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>231</v>
       </c>
@@ -65096,7 +65581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>232</v>
       </c>
@@ -65110,7 +65595,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>233</v>
       </c>
@@ -65140,9 +65625,9 @@
       <selection activeCell="BK2" sqref="BK2:BP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -65423,7 +65908,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -65704,7 +66189,7 @@
         <v>279.39678571428573</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -65985,7 +66470,7 @@
         <v>204.25035714285713</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -66266,7 +66751,7 @@
         <v>0.45642857142857146</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -66544,7 +67029,7 @@
         <v>69.132499999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -66780,7 +67265,7 @@
         <v>94.293928571428566</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -66989,7 +67474,7 @@
         <v>484.3042857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -67183,7 +67668,7 @@
         <v>36.441102756892235</v>
       </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -67377,7 +67862,7 @@
         <v>102.46616541353383</v>
       </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -67571,7 +68056,7 @@
         <v>638.5664786967418</v>
       </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -67750,7 +68235,7 @@
         <v>180.44817731829573</v>
       </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -67944,7 +68429,7 @@
         <v>24.849624060150379</v>
       </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -68138,7 +68623,7 @@
         <v>279.86992481203009</v>
       </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -68260,7 +68745,7 @@
         <v>1027.4354974937344</v>
       </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -68367,7 +68852,7 @@
         <v>93.293214285714299</v>
       </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -68459,7 +68944,7 @@
         <v>107.2192857142857</v>
       </c>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -68563,7 +69048,7 @@
         <v>20544.889285714286</v>
       </c>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -68670,7 +69155,7 @@
         <v>1744.9221428571429</v>
       </c>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -68777,7 +69262,7 @@
         <v>2490.4300000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -68881,7 +69366,7 @@
         <v>533.06451612903231</v>
       </c>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -68988,7 +69473,7 @@
         <v>2390.0689285714284</v>
       </c>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -69092,7 +69577,7 @@
         <v>1387.8046428571429</v>
       </c>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -69199,7 +69684,7 @@
         <v>2933.8700000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -69306,7 +69791,7 @@
         <v>25.587142857142858</v>
       </c>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -69392,7 +69877,7 @@
         <v>254.10321428571427</v>
       </c>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -69499,7 +69984,7 @@
         <v>4187.9007142857145</v>
       </c>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -69603,7 +70088,7 @@
         <v>4.6774193548387091</v>
       </c>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -69707,7 +70192,7 @@
         <v>7.746428571428571</v>
       </c>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -69814,7 +70299,7 @@
         <v>30.743214285714284</v>
       </c>
     </row>
-    <row r="30" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -69921,7 +70406,7 @@
         <v>843.72928571428565</v>
       </c>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -70025,7 +70510,7 @@
         <v>640.53428571428572</v>
       </c>
     </row>
-    <row r="32" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -70132,7 +70617,7 @@
         <v>156.63857142857142</v>
       </c>
     </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -70239,7 +70724,7 @@
         <v>355.1514285714286</v>
       </c>
     </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -70346,7 +70831,7 @@
         <v>706.55</v>
       </c>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -70453,7 +70938,7 @@
         <v>1337.5746428571429</v>
       </c>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -70560,7 +71045,7 @@
         <v>54.763928571428572</v>
       </c>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -70652,7 +71137,7 @@
         <v>2403.0907142857145</v>
       </c>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -70741,7 +71226,7 @@
         <v>21.12903225806452</v>
       </c>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -70848,7 +71333,7 @@
         <v>126.60607142857144</v>
       </c>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -70955,7 +71440,7 @@
         <v>4403.3396428571432</v>
       </c>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -71062,7 +71547,7 @@
         <v>2355.678571428572</v>
       </c>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -71169,7 +71654,7 @@
         <v>742.81714285714293</v>
       </c>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -71276,7 +71761,7 @@
         <v>173.38000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -71383,7 +71868,7 @@
         <v>473.56857142857137</v>
       </c>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -71490,7 +71975,7 @@
         <v>9374.5607142857152</v>
       </c>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -71597,7 +72082,7 @@
         <v>2738.1410714285716</v>
       </c>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -71704,7 +72189,7 @@
         <v>303.81678571428574</v>
       </c>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -71811,7 +72296,7 @@
         <v>56.937857142857141</v>
       </c>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -71918,7 +72403,7 @@
         <v>190.38785714285714</v>
       </c>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -72022,7 +72507,7 @@
         <v>335.60785714285714</v>
       </c>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -72129,7 +72614,7 @@
         <v>22122.889642857142</v>
       </c>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -72236,7 +72721,7 @@
         <v>260.95464285714286</v>
       </c>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -72343,7 +72828,7 @@
         <v>637.88357142857149</v>
       </c>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -72450,7 +72935,7 @@
         <v>103.7525</v>
       </c>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -72557,7 +73042,7 @@
         <v>978.79857142857145</v>
       </c>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -72655,7 +73140,7 @@
         <v>13.831071428571427</v>
       </c>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -72753,7 +73238,7 @@
         <v>540.29499999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -72860,7 +73345,7 @@
         <v>46.859642857142859</v>
       </c>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -72967,7 +73452,7 @@
         <v>151.89571428571429</v>
       </c>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -73074,7 +73559,7 @@
         <v>9126.5232142857149</v>
       </c>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -73178,7 +73663,7 @@
         <v>192.87142857142859</v>
       </c>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -73282,7 +73767,7 @@
         <v>147.71857142857144</v>
       </c>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -73377,7 +73862,7 @@
         <v>6310.7849999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -73484,7 +73969,7 @@
         <v>132.10500000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -73591,7 +74076,7 @@
         <v>173.21821428571431</v>
       </c>
     </row>
-    <row r="66" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -73698,7 +74183,7 @@
         <v>443.24678571428575</v>
       </c>
     </row>
-    <row r="67" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -73805,7 +74290,7 @@
         <v>1459.4103571428573</v>
       </c>
     </row>
-    <row r="68" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -73912,7 +74397,7 @@
         <v>649.42000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -74019,7 +74504,7 @@
         <v>807.09357142857141</v>
       </c>
     </row>
-    <row r="70" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -74126,7 +74611,7 @@
         <v>599.41285714285709</v>
       </c>
     </row>
-    <row r="71" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -74233,7 +74718,7 @@
         <v>97.421785714285718</v>
       </c>
     </row>
-    <row r="72" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -74331,7 +74816,7 @@
         <v>108.38607142857143</v>
       </c>
     </row>
-    <row r="73" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -74438,7 +74923,7 @@
         <v>927.17535714285714</v>
       </c>
     </row>
-    <row r="74" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -74536,7 +75021,7 @@
         <v>34.401071428571427</v>
       </c>
     </row>
-    <row r="75" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -74643,7 +75128,7 @@
         <v>318.53285714285715</v>
       </c>
     </row>
-    <row r="76" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -74750,7 +75235,7 @@
         <v>214.20571428571429</v>
       </c>
     </row>
-    <row r="77" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -74857,7 +75342,7 @@
         <v>143.38285714285715</v>
       </c>
     </row>
-    <row r="78" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -74964,7 +75449,7 @@
         <v>12319.718571428572</v>
       </c>
     </row>
-    <row r="79" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>101</v>
       </c>
@@ -75068,7 +75553,7 @@
         <v>577.41250000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>132</v>
       </c>
@@ -75172,7 +75657,7 @@
         <v>1264.2449999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -75279,7 +75764,7 @@
         <v>189.49035714285714</v>
       </c>
     </row>
-    <row r="82" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -75386,7 +75871,7 @@
         <v>526.15714285714284</v>
       </c>
     </row>
-    <row r="83" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -75493,7 +75978,7 @@
         <v>75.871428571428567</v>
       </c>
     </row>
-    <row r="84" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -75579,7 +76064,7 @@
         <v>30.571071428571429</v>
       </c>
     </row>
-    <row r="85" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -75686,7 +76171,7 @@
         <v>530.1875</v>
       </c>
     </row>
-    <row r="86" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>75</v>
       </c>
@@ -75793,7 +76278,7 @@
         <v>4.5210714285714291</v>
       </c>
     </row>
-    <row r="87" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -75900,7 +76385,7 @@
         <v>1490.8092857142858</v>
       </c>
     </row>
-    <row r="88" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -76007,7 +76492,7 @@
         <v>48.676785714285714</v>
       </c>
     </row>
-    <row r="89" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -76114,7 +76599,7 @@
         <v>322.86035714285714</v>
       </c>
     </row>
-    <row r="90" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -76221,7 +76706,7 @@
         <v>1531.1407142857142</v>
       </c>
     </row>
-    <row r="91" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -76313,7 +76798,7 @@
         <v>1506.0000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -76378,7 +76863,7 @@
         <v>47.999999999999993</v>
       </c>
     </row>
-    <row r="93" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -76443,7 +76928,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -76508,7 +76993,7 @@
         <v>1335.9999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -76528,7 +77013,7 @@
         <v>0.27153795600000002</v>
       </c>
     </row>
-    <row r="96" spans="1:94" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>89</v>
       </c>
@@ -76548,7 +77033,7 @@
         <v>0.55174036295511442</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -76568,7 +77053,7 @@
         <v>0.49709693130203125</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -76588,7 +77073,7 @@
         <v>0.16007085329610796</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -76608,7 +77093,7 @@
         <v>0.18769161201376711</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -76628,7 +77113,7 @@
         <v>3.6126428392857138E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -76648,7 +77133,7 @@
         <v>7.3927555883256529E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -76668,7 +77153,7 @@
         <v>0.12348734540322581</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -76688,7 +77173,7 @@
         <v>0.10037557510714286</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -76708,7 +77193,7 @@
         <v>6.3995566384180788E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -76728,7 +77213,7 @@
         <v>0.10775145633802817</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>147</v>
       </c>
@@ -76748,7 +77233,7 @@
         <v>7.3735483870967741E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -76768,7 +77253,7 @@
         <v>9.957908500571859E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>88</v>
       </c>
@@ -76788,7 +77273,7 @@
         <v>5.4281306290350877E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>98</v>
       </c>
@@ -76814,12 +77299,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77046,15 +77528,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C617D9-8064-4F9E-848F-971B706D488A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -77079,18 +77573,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C617D9-8064-4F9E-848F-971B706D488A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C1B9B3C-4722-4874-8798-B81B9B6F91AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6c75cb1f-1e2b-49d1-8289-20651f4935b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="7cd710cb-49ab-46db-a349-b062c519cda6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>